--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9736659580784446</v>
+        <v>0.9736659580784432</v>
       </c>
       <c r="D2">
-        <v>0.9970565845762893</v>
+        <v>0.997056584576288</v>
       </c>
       <c r="E2">
-        <v>0.9820310335988907</v>
+        <v>0.9820310335988891</v>
       </c>
       <c r="F2">
-        <v>0.9490668476813462</v>
+        <v>0.9490668476813447</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033201167428951</v>
+        <v>1.03320116742895</v>
       </c>
       <c r="J2">
-        <v>0.9966638937091482</v>
+        <v>0.996663893709147</v>
       </c>
       <c r="K2">
-        <v>1.008557078737613</v>
+        <v>1.008557078737612</v>
       </c>
       <c r="L2">
-        <v>0.993746513890935</v>
+        <v>0.9937465138909337</v>
       </c>
       <c r="M2">
-        <v>0.9612845247549194</v>
+        <v>0.9612845247549181</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9851558865080625</v>
+        <v>0.985155886508061</v>
       </c>
       <c r="D3">
-        <v>1.006062307699134</v>
+        <v>1.006062307699132</v>
       </c>
       <c r="E3">
-        <v>0.9929398593055658</v>
+        <v>0.9929398593055645</v>
       </c>
       <c r="F3">
-        <v>0.9637381308548546</v>
+        <v>0.963738130854853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037662016219322</v>
+        <v>1.037662016219321</v>
       </c>
       <c r="J3">
-        <v>1.006059562736309</v>
+        <v>1.006059562736307</v>
       </c>
       <c r="K3">
-        <v>1.016618203395582</v>
+        <v>1.01661820339558</v>
       </c>
       <c r="L3">
-        <v>1.003663880182659</v>
+        <v>1.003663880182658</v>
       </c>
       <c r="M3">
-        <v>0.9748570231642419</v>
+        <v>0.9748570231642402</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,22 +497,22 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922106746530498</v>
+        <v>0.9922106746530505</v>
       </c>
       <c r="D4">
-        <v>1.011594996794773</v>
+        <v>1.011594996794774</v>
       </c>
       <c r="E4">
-        <v>0.9996432794113554</v>
+        <v>0.9996432794113562</v>
       </c>
       <c r="F4">
-        <v>0.9727347763089185</v>
+        <v>0.9727347763089189</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040381389621896</v>
+        <v>1.040381389621897</v>
       </c>
       <c r="J4">
         <v>1.011815752955249</v>
@@ -521,10 +521,10 @@
         <v>1.021555466022587</v>
       </c>
       <c r="L4">
-        <v>1.009746011643773</v>
+        <v>1.009746011643774</v>
       </c>
       <c r="M4">
-        <v>0.9831738018509381</v>
+        <v>0.9831738018509386</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9950941828839883</v>
+        <v>0.9950941828839908</v>
       </c>
       <c r="D5">
-        <v>1.013856924477685</v>
+        <v>1.013856924477688</v>
       </c>
       <c r="E5">
-        <v>1.002384367740008</v>
+        <v>1.002384367740011</v>
       </c>
       <c r="F5">
-        <v>0.9764101203287943</v>
+        <v>0.9764101203287968</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041488119615069</v>
+        <v>1.04148811961507</v>
       </c>
       <c r="J5">
-        <v>1.014165423553131</v>
+        <v>1.014165423553134</v>
       </c>
       <c r="K5">
-        <v>1.023570456159788</v>
+        <v>1.02357045615979</v>
       </c>
       <c r="L5">
-        <v>1.012230220357301</v>
+        <v>1.012230220357303</v>
       </c>
       <c r="M5">
-        <v>0.9865698587884668</v>
+        <v>0.9865698587884693</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955737349257743</v>
+        <v>0.9955737349257753</v>
       </c>
       <c r="D6">
         <v>1.014233128748916</v>
       </c>
       <c r="E6">
-        <v>1.002840301620977</v>
+        <v>1.002840301620978</v>
       </c>
       <c r="F6">
-        <v>0.977021275071849</v>
+        <v>0.9770212750718491</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041671896151403</v>
+        <v>1.041671896151404</v>
       </c>
       <c r="J6">
-        <v>1.014556013391534</v>
+        <v>1.014556013391535</v>
       </c>
       <c r="K6">
         <v>1.023905386152173</v>
       </c>
       <c r="L6">
-        <v>1.012643261654433</v>
+        <v>1.012643261654434</v>
       </c>
       <c r="M6">
-        <v>0.9871344790503319</v>
+        <v>0.9871344790503324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922495173109983</v>
+        <v>0.9922495173109993</v>
       </c>
       <c r="D7">
         <v>1.011625464467027</v>
       </c>
       <c r="E7">
-        <v>0.9996801989662636</v>
+        <v>0.9996801989662653</v>
       </c>
       <c r="F7">
-        <v>0.9727842918115008</v>
+        <v>0.9727842918115023</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040396316975929</v>
+        <v>1.04039631697593</v>
       </c>
       <c r="J7">
-        <v>1.011847416664905</v>
+        <v>1.011847416664907</v>
       </c>
       <c r="K7">
-        <v>1.021582621309235</v>
+        <v>1.021582621309236</v>
       </c>
       <c r="L7">
-        <v>1.009779482474318</v>
+        <v>1.009779482474319</v>
       </c>
       <c r="M7">
-        <v>0.9832195609493217</v>
+        <v>0.9832195609493234</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9776333766560898</v>
+        <v>0.9776333766560916</v>
       </c>
       <c r="D8">
-        <v>1.000165387002333</v>
+        <v>1.000165387002334</v>
       </c>
       <c r="E8">
-        <v>0.9857965650290746</v>
+        <v>0.9857965650290765</v>
       </c>
       <c r="F8">
-        <v>0.9541358505835178</v>
+        <v>0.9541358505835198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034745631362382</v>
+        <v>1.034745631362383</v>
       </c>
       <c r="J8">
-        <v>0.9999108981242592</v>
+        <v>0.9999108981242608</v>
       </c>
       <c r="K8">
-        <v>1.01134311848162</v>
+        <v>1.011343118481622</v>
       </c>
       <c r="L8">
-        <v>0.9971724312977763</v>
+        <v>0.9971724312977783</v>
       </c>
       <c r="M8">
-        <v>0.965975134230744</v>
+        <v>0.9659751342307455</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9484838618987508</v>
+        <v>0.9484838618987532</v>
       </c>
       <c r="D9">
-        <v>0.9773504183341511</v>
+        <v>0.977350418334153</v>
       </c>
       <c r="E9">
-        <v>0.9581607069922254</v>
+        <v>0.9581607069922279</v>
       </c>
       <c r="F9">
-        <v>0.9167892284063437</v>
+        <v>0.9167892284063461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023312360163502</v>
+        <v>1.023312360163503</v>
       </c>
       <c r="J9">
-        <v>0.9759968045539248</v>
+        <v>0.975996804553927</v>
       </c>
       <c r="K9">
-        <v>0.9908219788337156</v>
+        <v>0.9908219788337174</v>
       </c>
       <c r="L9">
-        <v>0.9719711458978562</v>
+        <v>0.9719711458978586</v>
       </c>
       <c r="M9">
-        <v>0.9313938901473982</v>
+        <v>0.9313938901474006</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9258708973373123</v>
+        <v>0.9258708973373108</v>
       </c>
       <c r="D10">
-        <v>0.9597034168284929</v>
+        <v>0.9597034168284916</v>
       </c>
       <c r="E10">
-        <v>0.9367706315957908</v>
+        <v>0.9367706315957893</v>
       </c>
       <c r="F10">
-        <v>0.8875933152320045</v>
+        <v>0.8875933152320029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014334021417092</v>
+        <v>1.014334021417091</v>
       </c>
       <c r="J10">
-        <v>0.9573690173488311</v>
+        <v>0.9573690173488296</v>
       </c>
       <c r="K10">
-        <v>0.9748404588584012</v>
+        <v>0.9748404588583998</v>
       </c>
       <c r="L10">
-        <v>0.9523837437436176</v>
+        <v>0.9523837437436159</v>
       </c>
       <c r="M10">
-        <v>0.9043392549796112</v>
+        <v>0.9043392549796099</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9150238968530222</v>
+        <v>0.9150238968530225</v>
       </c>
       <c r="D11">
-        <v>0.9512583080931718</v>
+        <v>0.9512583080931719</v>
       </c>
       <c r="E11">
-        <v>0.9265255181850705</v>
+        <v>0.9265255181850708</v>
       </c>
       <c r="F11">
-        <v>0.873493887647723</v>
+        <v>0.8734938876477237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010002896085229</v>
+        <v>1.01000289608523</v>
       </c>
       <c r="J11">
-        <v>0.9484151263903066</v>
+        <v>0.9484151263903069</v>
       </c>
       <c r="K11">
-        <v>0.967161928191406</v>
+        <v>0.9671619281914062</v>
       </c>
       <c r="L11">
-        <v>0.942980140634988</v>
+        <v>0.9429801406349887</v>
       </c>
       <c r="M11">
-        <v>0.8912734231565359</v>
+        <v>0.8912734231565366</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9107985718797934</v>
+        <v>0.910798571879793</v>
       </c>
       <c r="D12">
-        <v>0.9479724404592799</v>
+        <v>0.9479724404592796</v>
       </c>
       <c r="E12">
-        <v>0.9225373637754239</v>
+        <v>0.9225373637754238</v>
       </c>
       <c r="F12">
-        <v>0.8679820697898256</v>
+        <v>0.8679820697898248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008312278451664</v>
+        <v>1.008312278451663</v>
       </c>
       <c r="J12">
-        <v>0.9449244141527625</v>
+        <v>0.9449244141527621</v>
       </c>
       <c r="K12">
-        <v>0.964169226968551</v>
+        <v>0.9641692269685508</v>
       </c>
       <c r="L12">
-        <v>0.939315992137722</v>
+        <v>0.9393159921377219</v>
       </c>
       <c r="M12">
-        <v>0.8861661833190525</v>
+        <v>0.8861661833190519</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9117145640497063</v>
+        <v>0.9117145640497065</v>
       </c>
       <c r="D13">
-        <v>0.9486845831015145</v>
+        <v>0.9486845831015149</v>
       </c>
       <c r="E13">
-        <v>0.9234018109721172</v>
+        <v>0.9234018109721173</v>
       </c>
       <c r="F13">
-        <v>0.8691779422364937</v>
+        <v>0.8691779422364942</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008678933680022</v>
       </c>
       <c r="J13">
-        <v>0.9456812804585641</v>
+        <v>0.9456812804585646</v>
       </c>
       <c r="K13">
-        <v>0.9648180710795647</v>
+        <v>0.964818071079565</v>
       </c>
       <c r="L13">
-        <v>0.9401103757528509</v>
+        <v>0.9401103757528511</v>
       </c>
       <c r="M13">
-        <v>0.8872742408929685</v>
+        <v>0.887274240892969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9146789034654629</v>
+        <v>0.9146789034654611</v>
       </c>
       <c r="D14">
-        <v>0.950989937875888</v>
+        <v>0.9509899378758865</v>
       </c>
       <c r="E14">
-        <v>0.9261998323168648</v>
+        <v>0.9261998323168628</v>
       </c>
       <c r="F14">
-        <v>0.8730442837587935</v>
+        <v>0.8730442837587915</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009864927478048</v>
+        <v>1.009864927478047</v>
       </c>
       <c r="J14">
-        <v>0.9481301704877205</v>
+        <v>0.9481301704877186</v>
       </c>
       <c r="K14">
-        <v>0.9669176080020133</v>
+        <v>0.9669176080020119</v>
       </c>
       <c r="L14">
-        <v>0.9426809877964568</v>
+        <v>0.942680987796455</v>
       </c>
       <c r="M14">
-        <v>0.8908568063763979</v>
+        <v>0.8908568063763959</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9164779547811338</v>
+        <v>0.9164779547811329</v>
       </c>
       <c r="D15">
-        <v>0.9523895784333063</v>
+        <v>0.9523895784333055</v>
       </c>
       <c r="E15">
-        <v>0.9278983115090106</v>
+        <v>0.9278983115090094</v>
       </c>
       <c r="F15">
-        <v>0.8753880305524891</v>
+        <v>0.8753880305524879</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010584259739797</v>
       </c>
       <c r="J15">
-        <v>0.9496160280375467</v>
+        <v>0.9496160280375457</v>
       </c>
       <c r="K15">
-        <v>0.9681916113976728</v>
+        <v>0.9681916113976721</v>
       </c>
       <c r="L15">
-        <v>0.944240949713621</v>
+        <v>0.9442409497136202</v>
       </c>
       <c r="M15">
-        <v>0.8930286191119359</v>
+        <v>0.8930286191119347</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9265656244645377</v>
+        <v>0.9265656244645404</v>
       </c>
       <c r="D16">
-        <v>0.9602447720273684</v>
+        <v>0.9602447720273704</v>
       </c>
       <c r="E16">
-        <v>0.9374271490186412</v>
+        <v>0.9374271490186438</v>
       </c>
       <c r="F16">
-        <v>0.8884940523603757</v>
+        <v>0.888494052360378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014610943340135</v>
+        <v>1.014610943340136</v>
       </c>
       <c r="J16">
-        <v>0.9579421187192517</v>
+        <v>0.9579421187192543</v>
       </c>
       <c r="K16">
-        <v>0.9753320202491946</v>
+        <v>0.9753320202491966</v>
       </c>
       <c r="L16">
-        <v>0.9529858732629755</v>
+        <v>0.9529858732629777</v>
       </c>
       <c r="M16">
-        <v>0.9051739947457879</v>
+        <v>0.9051739947457903</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.932588128368725</v>
+        <v>0.932588128368726</v>
       </c>
       <c r="D17">
-        <v>0.9649399513355539</v>
+        <v>0.9649399513355545</v>
       </c>
       <c r="E17">
-        <v>0.9431201237006454</v>
+        <v>0.9431201237006464</v>
       </c>
       <c r="F17">
-        <v>0.8962916868962929</v>
+        <v>0.896291686896294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017008900180915</v>
+        <v>1.017008900180916</v>
       </c>
       <c r="J17">
-        <v>0.9629082421299815</v>
+        <v>0.9629082421299824</v>
       </c>
       <c r="K17">
-        <v>0.9795919644550185</v>
+        <v>0.9795919644550194</v>
       </c>
       <c r="L17">
-        <v>0.9582048075749712</v>
+        <v>0.9582048075749722</v>
       </c>
       <c r="M17">
-        <v>0.9124002851504135</v>
+        <v>0.9124002851504146</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.936002223990408</v>
+        <v>0.9360022239904094</v>
       </c>
       <c r="D18">
-        <v>0.967603333206668</v>
+        <v>0.9676033332066699</v>
       </c>
       <c r="E18">
-        <v>0.9463487674427611</v>
+        <v>0.946348767442763</v>
       </c>
       <c r="F18">
-        <v>0.9007039121032542</v>
+        <v>0.900703912103256</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018366055050663</v>
+        <v>1.018366055050664</v>
       </c>
       <c r="J18">
-        <v>0.965721814758154</v>
+        <v>0.9657218147581557</v>
       </c>
       <c r="K18">
-        <v>0.9820057319156107</v>
+        <v>0.9820057319156126</v>
       </c>
       <c r="L18">
-        <v>0.9611626445945367</v>
+        <v>0.9611626445945387</v>
       </c>
       <c r="M18">
-        <v>0.9164891317161618</v>
+        <v>0.9164891317161636</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9371505336563151</v>
+        <v>0.9371505336563132</v>
       </c>
       <c r="D19">
-        <v>0.9684994182994806</v>
+        <v>0.9684994182994795</v>
       </c>
       <c r="E19">
-        <v>0.9474349212345431</v>
+        <v>0.9474349212345413</v>
       </c>
       <c r="F19">
-        <v>0.9021866712011168</v>
+        <v>0.9021866712011146</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.0188221438972</v>
       </c>
       <c r="J19">
-        <v>0.9666678595144519</v>
+        <v>0.9666678595144502</v>
       </c>
       <c r="K19">
-        <v>0.9828173856435668</v>
+        <v>0.9828173856435655</v>
       </c>
       <c r="L19">
-        <v>0.9621573690741209</v>
+        <v>0.9621573690741192</v>
       </c>
       <c r="M19">
-        <v>0.9178631888494414</v>
+        <v>0.9178631888494393</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9319524128029708</v>
+        <v>0.9319524128029714</v>
       </c>
       <c r="D20">
-        <v>0.9644441574505254</v>
+        <v>0.9644441574505257</v>
       </c>
       <c r="E20">
-        <v>0.9425190479805308</v>
+        <v>0.9425190479805312</v>
       </c>
       <c r="F20">
-        <v>0.8954694793505467</v>
+        <v>0.8954694793505469</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016756011003362</v>
+        <v>1.016756011003363</v>
       </c>
       <c r="J20">
-        <v>0.9623842096060229</v>
+        <v>0.9623842096060233</v>
       </c>
       <c r="K20">
-        <v>0.9791424176114363</v>
+        <v>0.9791424176114367</v>
       </c>
       <c r="L20">
-        <v>0.9576539891009709</v>
+        <v>0.9576539891009715</v>
       </c>
       <c r="M20">
-        <v>0.9116383278826237</v>
+        <v>0.9116383278826241</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138117720888437</v>
+        <v>0.9138117720888443</v>
       </c>
       <c r="D21">
-        <v>0.9503154611041404</v>
+        <v>0.950315461104141</v>
       </c>
       <c r="E21">
-        <v>0.9253812747349554</v>
+        <v>0.9253812747349562</v>
       </c>
       <c r="F21">
-        <v>0.8719138831216676</v>
+        <v>0.8719138831216688</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.009518092426641</v>
       </c>
       <c r="J21">
-        <v>0.9474138963671984</v>
+        <v>0.9474138963671992</v>
       </c>
       <c r="K21">
-        <v>0.9663034911294291</v>
+        <v>0.9663034911294298</v>
       </c>
       <c r="L21">
-        <v>0.9419290584918755</v>
+        <v>0.9419290584918762</v>
       </c>
       <c r="M21">
-        <v>0.8898093531374108</v>
+        <v>0.8898093531374116</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9012396042008954</v>
+        <v>0.9012396042008939</v>
       </c>
       <c r="D22">
-        <v>0.9405471726186383</v>
+        <v>0.9405471726186369</v>
       </c>
       <c r="E22">
-        <v>0.9135206026343322</v>
+        <v>0.9135206026343307</v>
       </c>
       <c r="F22">
-        <v>0.8554678940259859</v>
+        <v>0.8554678940259843</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.004481339071292</v>
       </c>
       <c r="J22">
-        <v>0.9370219860848709</v>
+        <v>0.9370219860848693</v>
       </c>
       <c r="K22">
-        <v>0.9573961580983487</v>
+        <v>0.9573961580983472</v>
       </c>
       <c r="L22">
-        <v>0.9310246824570273</v>
+        <v>0.9310246824570257</v>
       </c>
       <c r="M22">
-        <v>0.8745724731198316</v>
+        <v>0.8745724731198301</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9080317081570546</v>
+        <v>0.9080317081570525</v>
       </c>
       <c r="D23">
-        <v>0.9458219706117614</v>
+        <v>0.9458219706117597</v>
       </c>
       <c r="E23">
-        <v>0.919926634632017</v>
+        <v>0.9199266346320146</v>
       </c>
       <c r="F23">
-        <v>0.8643663821533812</v>
+        <v>0.8643663821533782</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007204259731552</v>
+        <v>1.007204259731551</v>
       </c>
       <c r="J23">
-        <v>0.9426377886828713</v>
+        <v>0.9426377886828694</v>
       </c>
       <c r="K23">
-        <v>0.9622091025594578</v>
+        <v>0.9622091025594559</v>
       </c>
       <c r="L23">
-        <v>0.9369163117535581</v>
+        <v>0.9369163117535558</v>
       </c>
       <c r="M23">
-        <v>0.8828161391956657</v>
+        <v>0.8828161391956626</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9322399677317609</v>
+        <v>0.932239967731761</v>
       </c>
       <c r="D24">
-        <v>0.9646684158689326</v>
+        <v>0.9646684158689325</v>
       </c>
       <c r="E24">
-        <v>0.9427909299666802</v>
+        <v>0.9427909299666799</v>
       </c>
       <c r="F24">
-        <v>0.8958414159042636</v>
+        <v>0.8958414159042635</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.016870408006008</v>
       </c>
       <c r="J24">
-        <v>0.9626212518694208</v>
+        <v>0.9626212518694207</v>
       </c>
       <c r="K24">
-        <v>0.9793457659600577</v>
+        <v>0.9793457659600576</v>
       </c>
       <c r="L24">
-        <v>0.9579031445693889</v>
+        <v>0.9579031445693887</v>
       </c>
       <c r="M24">
-        <v>0.9119830097348233</v>
+        <v>0.911983009734823</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9565003046484009</v>
+        <v>0.9565003046484005</v>
       </c>
       <c r="D25">
-        <v>0.9836181977646091</v>
+        <v>0.9836181977646089</v>
       </c>
       <c r="E25">
-        <v>0.9657538672885975</v>
+        <v>0.9657538672885972</v>
       </c>
       <c r="F25">
         <v>0.9270868669685179</v>
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026474830732137</v>
+        <v>1.026474830732136</v>
       </c>
       <c r="J25">
-        <v>0.9825858414383797</v>
+        <v>0.9825858414383793</v>
       </c>
       <c r="K25">
-        <v>0.9964762572926358</v>
+        <v>0.9964762572926354</v>
       </c>
       <c r="L25">
-        <v>0.9789081409774631</v>
+        <v>0.978908140977463</v>
       </c>
       <c r="M25">
-        <v>0.9409333803178355</v>
+        <v>0.9409333803178351</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9736659580784432</v>
+        <v>0.9736659580784446</v>
       </c>
       <c r="D2">
-        <v>0.997056584576288</v>
+        <v>0.9970565845762893</v>
       </c>
       <c r="E2">
-        <v>0.9820310335988891</v>
+        <v>0.9820310335988907</v>
       </c>
       <c r="F2">
-        <v>0.9490668476813447</v>
+        <v>0.9490668476813462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03320116742895</v>
+        <v>1.033201167428951</v>
       </c>
       <c r="J2">
-        <v>0.996663893709147</v>
+        <v>0.9966638937091482</v>
       </c>
       <c r="K2">
-        <v>1.008557078737612</v>
+        <v>1.008557078737613</v>
       </c>
       <c r="L2">
-        <v>0.9937465138909337</v>
+        <v>0.993746513890935</v>
       </c>
       <c r="M2">
-        <v>0.9612845247549181</v>
+        <v>0.9612845247549194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.985155886508061</v>
+        <v>0.9851558865080625</v>
       </c>
       <c r="D3">
-        <v>1.006062307699132</v>
+        <v>1.006062307699134</v>
       </c>
       <c r="E3">
-        <v>0.9929398593055645</v>
+        <v>0.9929398593055658</v>
       </c>
       <c r="F3">
-        <v>0.963738130854853</v>
+        <v>0.9637381308548546</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037662016219321</v>
+        <v>1.037662016219322</v>
       </c>
       <c r="J3">
-        <v>1.006059562736307</v>
+        <v>1.006059562736309</v>
       </c>
       <c r="K3">
-        <v>1.01661820339558</v>
+        <v>1.016618203395582</v>
       </c>
       <c r="L3">
-        <v>1.003663880182658</v>
+        <v>1.003663880182659</v>
       </c>
       <c r="M3">
-        <v>0.9748570231642402</v>
+        <v>0.9748570231642419</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,22 +497,22 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922106746530505</v>
+        <v>0.9922106746530498</v>
       </c>
       <c r="D4">
-        <v>1.011594996794774</v>
+        <v>1.011594996794773</v>
       </c>
       <c r="E4">
-        <v>0.9996432794113562</v>
+        <v>0.9996432794113554</v>
       </c>
       <c r="F4">
-        <v>0.9727347763089189</v>
+        <v>0.9727347763089185</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040381389621897</v>
+        <v>1.040381389621896</v>
       </c>
       <c r="J4">
         <v>1.011815752955249</v>
@@ -521,10 +521,10 @@
         <v>1.021555466022587</v>
       </c>
       <c r="L4">
-        <v>1.009746011643774</v>
+        <v>1.009746011643773</v>
       </c>
       <c r="M4">
-        <v>0.9831738018509386</v>
+        <v>0.9831738018509381</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9950941828839908</v>
+        <v>0.9950941828839883</v>
       </c>
       <c r="D5">
-        <v>1.013856924477688</v>
+        <v>1.013856924477685</v>
       </c>
       <c r="E5">
-        <v>1.002384367740011</v>
+        <v>1.002384367740008</v>
       </c>
       <c r="F5">
-        <v>0.9764101203287968</v>
+        <v>0.9764101203287943</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04148811961507</v>
+        <v>1.041488119615069</v>
       </c>
       <c r="J5">
-        <v>1.014165423553134</v>
+        <v>1.014165423553131</v>
       </c>
       <c r="K5">
-        <v>1.02357045615979</v>
+        <v>1.023570456159788</v>
       </c>
       <c r="L5">
-        <v>1.012230220357303</v>
+        <v>1.012230220357301</v>
       </c>
       <c r="M5">
-        <v>0.9865698587884693</v>
+        <v>0.9865698587884668</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955737349257753</v>
+        <v>0.9955737349257743</v>
       </c>
       <c r="D6">
         <v>1.014233128748916</v>
       </c>
       <c r="E6">
-        <v>1.002840301620978</v>
+        <v>1.002840301620977</v>
       </c>
       <c r="F6">
-        <v>0.9770212750718491</v>
+        <v>0.977021275071849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041671896151404</v>
+        <v>1.041671896151403</v>
       </c>
       <c r="J6">
-        <v>1.014556013391535</v>
+        <v>1.014556013391534</v>
       </c>
       <c r="K6">
         <v>1.023905386152173</v>
       </c>
       <c r="L6">
-        <v>1.012643261654434</v>
+        <v>1.012643261654433</v>
       </c>
       <c r="M6">
-        <v>0.9871344790503324</v>
+        <v>0.9871344790503319</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922495173109993</v>
+        <v>0.9922495173109983</v>
       </c>
       <c r="D7">
         <v>1.011625464467027</v>
       </c>
       <c r="E7">
-        <v>0.9996801989662653</v>
+        <v>0.9996801989662636</v>
       </c>
       <c r="F7">
-        <v>0.9727842918115023</v>
+        <v>0.9727842918115008</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04039631697593</v>
+        <v>1.040396316975929</v>
       </c>
       <c r="J7">
-        <v>1.011847416664907</v>
+        <v>1.011847416664905</v>
       </c>
       <c r="K7">
-        <v>1.021582621309236</v>
+        <v>1.021582621309235</v>
       </c>
       <c r="L7">
-        <v>1.009779482474319</v>
+        <v>1.009779482474318</v>
       </c>
       <c r="M7">
-        <v>0.9832195609493234</v>
+        <v>0.9832195609493217</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9776333766560916</v>
+        <v>0.9776333766560898</v>
       </c>
       <c r="D8">
-        <v>1.000165387002334</v>
+        <v>1.000165387002333</v>
       </c>
       <c r="E8">
-        <v>0.9857965650290765</v>
+        <v>0.9857965650290746</v>
       </c>
       <c r="F8">
-        <v>0.9541358505835198</v>
+        <v>0.9541358505835178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034745631362383</v>
+        <v>1.034745631362382</v>
       </c>
       <c r="J8">
-        <v>0.9999108981242608</v>
+        <v>0.9999108981242592</v>
       </c>
       <c r="K8">
-        <v>1.011343118481622</v>
+        <v>1.01134311848162</v>
       </c>
       <c r="L8">
-        <v>0.9971724312977783</v>
+        <v>0.9971724312977763</v>
       </c>
       <c r="M8">
-        <v>0.9659751342307455</v>
+        <v>0.965975134230744</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9484838618987532</v>
+        <v>0.9484838618987508</v>
       </c>
       <c r="D9">
-        <v>0.977350418334153</v>
+        <v>0.9773504183341511</v>
       </c>
       <c r="E9">
-        <v>0.9581607069922279</v>
+        <v>0.9581607069922254</v>
       </c>
       <c r="F9">
-        <v>0.9167892284063461</v>
+        <v>0.9167892284063437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023312360163503</v>
+        <v>1.023312360163502</v>
       </c>
       <c r="J9">
-        <v>0.975996804553927</v>
+        <v>0.9759968045539248</v>
       </c>
       <c r="K9">
-        <v>0.9908219788337174</v>
+        <v>0.9908219788337156</v>
       </c>
       <c r="L9">
-        <v>0.9719711458978586</v>
+        <v>0.9719711458978562</v>
       </c>
       <c r="M9">
-        <v>0.9313938901474006</v>
+        <v>0.9313938901473982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9258708973373108</v>
+        <v>0.9258708973373123</v>
       </c>
       <c r="D10">
-        <v>0.9597034168284916</v>
+        <v>0.9597034168284929</v>
       </c>
       <c r="E10">
-        <v>0.9367706315957893</v>
+        <v>0.9367706315957908</v>
       </c>
       <c r="F10">
-        <v>0.8875933152320029</v>
+        <v>0.8875933152320045</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014334021417091</v>
+        <v>1.014334021417092</v>
       </c>
       <c r="J10">
-        <v>0.9573690173488296</v>
+        <v>0.9573690173488311</v>
       </c>
       <c r="K10">
-        <v>0.9748404588583998</v>
+        <v>0.9748404588584012</v>
       </c>
       <c r="L10">
-        <v>0.9523837437436159</v>
+        <v>0.9523837437436176</v>
       </c>
       <c r="M10">
-        <v>0.9043392549796099</v>
+        <v>0.9043392549796112</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9150238968530225</v>
+        <v>0.9150238968530222</v>
       </c>
       <c r="D11">
-        <v>0.9512583080931719</v>
+        <v>0.9512583080931718</v>
       </c>
       <c r="E11">
-        <v>0.9265255181850708</v>
+        <v>0.9265255181850705</v>
       </c>
       <c r="F11">
-        <v>0.8734938876477237</v>
+        <v>0.873493887647723</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01000289608523</v>
+        <v>1.010002896085229</v>
       </c>
       <c r="J11">
-        <v>0.9484151263903069</v>
+        <v>0.9484151263903066</v>
       </c>
       <c r="K11">
-        <v>0.9671619281914062</v>
+        <v>0.967161928191406</v>
       </c>
       <c r="L11">
-        <v>0.9429801406349887</v>
+        <v>0.942980140634988</v>
       </c>
       <c r="M11">
-        <v>0.8912734231565366</v>
+        <v>0.8912734231565359</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.910798571879793</v>
+        <v>0.9107985718797934</v>
       </c>
       <c r="D12">
-        <v>0.9479724404592796</v>
+        <v>0.9479724404592799</v>
       </c>
       <c r="E12">
-        <v>0.9225373637754238</v>
+        <v>0.9225373637754239</v>
       </c>
       <c r="F12">
-        <v>0.8679820697898248</v>
+        <v>0.8679820697898256</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008312278451663</v>
+        <v>1.008312278451664</v>
       </c>
       <c r="J12">
-        <v>0.9449244141527621</v>
+        <v>0.9449244141527625</v>
       </c>
       <c r="K12">
-        <v>0.9641692269685508</v>
+        <v>0.964169226968551</v>
       </c>
       <c r="L12">
-        <v>0.9393159921377219</v>
+        <v>0.939315992137722</v>
       </c>
       <c r="M12">
-        <v>0.8861661833190519</v>
+        <v>0.8861661833190525</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9117145640497065</v>
+        <v>0.9117145640497063</v>
       </c>
       <c r="D13">
-        <v>0.9486845831015149</v>
+        <v>0.9486845831015145</v>
       </c>
       <c r="E13">
-        <v>0.9234018109721173</v>
+        <v>0.9234018109721172</v>
       </c>
       <c r="F13">
-        <v>0.8691779422364942</v>
+        <v>0.8691779422364937</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008678933680022</v>
       </c>
       <c r="J13">
-        <v>0.9456812804585646</v>
+        <v>0.9456812804585641</v>
       </c>
       <c r="K13">
-        <v>0.964818071079565</v>
+        <v>0.9648180710795647</v>
       </c>
       <c r="L13">
-        <v>0.9401103757528511</v>
+        <v>0.9401103757528509</v>
       </c>
       <c r="M13">
-        <v>0.887274240892969</v>
+        <v>0.8872742408929685</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9146789034654611</v>
+        <v>0.9146789034654629</v>
       </c>
       <c r="D14">
-        <v>0.9509899378758865</v>
+        <v>0.950989937875888</v>
       </c>
       <c r="E14">
-        <v>0.9261998323168628</v>
+        <v>0.9261998323168648</v>
       </c>
       <c r="F14">
-        <v>0.8730442837587915</v>
+        <v>0.8730442837587935</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009864927478047</v>
+        <v>1.009864927478048</v>
       </c>
       <c r="J14">
-        <v>0.9481301704877186</v>
+        <v>0.9481301704877205</v>
       </c>
       <c r="K14">
-        <v>0.9669176080020119</v>
+        <v>0.9669176080020133</v>
       </c>
       <c r="L14">
-        <v>0.942680987796455</v>
+        <v>0.9426809877964568</v>
       </c>
       <c r="M14">
-        <v>0.8908568063763959</v>
+        <v>0.8908568063763979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9164779547811329</v>
+        <v>0.9164779547811338</v>
       </c>
       <c r="D15">
-        <v>0.9523895784333055</v>
+        <v>0.9523895784333063</v>
       </c>
       <c r="E15">
-        <v>0.9278983115090094</v>
+        <v>0.9278983115090106</v>
       </c>
       <c r="F15">
-        <v>0.8753880305524879</v>
+        <v>0.8753880305524891</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010584259739797</v>
       </c>
       <c r="J15">
-        <v>0.9496160280375457</v>
+        <v>0.9496160280375467</v>
       </c>
       <c r="K15">
-        <v>0.9681916113976721</v>
+        <v>0.9681916113976728</v>
       </c>
       <c r="L15">
-        <v>0.9442409497136202</v>
+        <v>0.944240949713621</v>
       </c>
       <c r="M15">
-        <v>0.8930286191119347</v>
+        <v>0.8930286191119359</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9265656244645404</v>
+        <v>0.9265656244645377</v>
       </c>
       <c r="D16">
-        <v>0.9602447720273704</v>
+        <v>0.9602447720273684</v>
       </c>
       <c r="E16">
-        <v>0.9374271490186438</v>
+        <v>0.9374271490186412</v>
       </c>
       <c r="F16">
-        <v>0.888494052360378</v>
+        <v>0.8884940523603757</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014610943340136</v>
+        <v>1.014610943340135</v>
       </c>
       <c r="J16">
-        <v>0.9579421187192543</v>
+        <v>0.9579421187192517</v>
       </c>
       <c r="K16">
-        <v>0.9753320202491966</v>
+        <v>0.9753320202491946</v>
       </c>
       <c r="L16">
-        <v>0.9529858732629777</v>
+        <v>0.9529858732629755</v>
       </c>
       <c r="M16">
-        <v>0.9051739947457903</v>
+        <v>0.9051739947457879</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.932588128368726</v>
+        <v>0.932588128368725</v>
       </c>
       <c r="D17">
-        <v>0.9649399513355545</v>
+        <v>0.9649399513355539</v>
       </c>
       <c r="E17">
-        <v>0.9431201237006464</v>
+        <v>0.9431201237006454</v>
       </c>
       <c r="F17">
-        <v>0.896291686896294</v>
+        <v>0.8962916868962929</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017008900180916</v>
+        <v>1.017008900180915</v>
       </c>
       <c r="J17">
-        <v>0.9629082421299824</v>
+        <v>0.9629082421299815</v>
       </c>
       <c r="K17">
-        <v>0.9795919644550194</v>
+        <v>0.9795919644550185</v>
       </c>
       <c r="L17">
-        <v>0.9582048075749722</v>
+        <v>0.9582048075749712</v>
       </c>
       <c r="M17">
-        <v>0.9124002851504146</v>
+        <v>0.9124002851504135</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9360022239904094</v>
+        <v>0.936002223990408</v>
       </c>
       <c r="D18">
-        <v>0.9676033332066699</v>
+        <v>0.967603333206668</v>
       </c>
       <c r="E18">
-        <v>0.946348767442763</v>
+        <v>0.9463487674427611</v>
       </c>
       <c r="F18">
-        <v>0.900703912103256</v>
+        <v>0.9007039121032542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018366055050664</v>
+        <v>1.018366055050663</v>
       </c>
       <c r="J18">
-        <v>0.9657218147581557</v>
+        <v>0.965721814758154</v>
       </c>
       <c r="K18">
-        <v>0.9820057319156126</v>
+        <v>0.9820057319156107</v>
       </c>
       <c r="L18">
-        <v>0.9611626445945387</v>
+        <v>0.9611626445945367</v>
       </c>
       <c r="M18">
-        <v>0.9164891317161636</v>
+        <v>0.9164891317161618</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9371505336563132</v>
+        <v>0.9371505336563151</v>
       </c>
       <c r="D19">
-        <v>0.9684994182994795</v>
+        <v>0.9684994182994806</v>
       </c>
       <c r="E19">
-        <v>0.9474349212345413</v>
+        <v>0.9474349212345431</v>
       </c>
       <c r="F19">
-        <v>0.9021866712011146</v>
+        <v>0.9021866712011168</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.0188221438972</v>
       </c>
       <c r="J19">
-        <v>0.9666678595144502</v>
+        <v>0.9666678595144519</v>
       </c>
       <c r="K19">
-        <v>0.9828173856435655</v>
+        <v>0.9828173856435668</v>
       </c>
       <c r="L19">
-        <v>0.9621573690741192</v>
+        <v>0.9621573690741209</v>
       </c>
       <c r="M19">
-        <v>0.9178631888494393</v>
+        <v>0.9178631888494414</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9319524128029714</v>
+        <v>0.9319524128029708</v>
       </c>
       <c r="D20">
-        <v>0.9644441574505257</v>
+        <v>0.9644441574505254</v>
       </c>
       <c r="E20">
-        <v>0.9425190479805312</v>
+        <v>0.9425190479805308</v>
       </c>
       <c r="F20">
-        <v>0.8954694793505469</v>
+        <v>0.8954694793505467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016756011003363</v>
+        <v>1.016756011003362</v>
       </c>
       <c r="J20">
-        <v>0.9623842096060233</v>
+        <v>0.9623842096060229</v>
       </c>
       <c r="K20">
-        <v>0.9791424176114367</v>
+        <v>0.9791424176114363</v>
       </c>
       <c r="L20">
-        <v>0.9576539891009715</v>
+        <v>0.9576539891009709</v>
       </c>
       <c r="M20">
-        <v>0.9116383278826241</v>
+        <v>0.9116383278826237</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138117720888443</v>
+        <v>0.9138117720888437</v>
       </c>
       <c r="D21">
-        <v>0.950315461104141</v>
+        <v>0.9503154611041404</v>
       </c>
       <c r="E21">
-        <v>0.9253812747349562</v>
+        <v>0.9253812747349554</v>
       </c>
       <c r="F21">
-        <v>0.8719138831216688</v>
+        <v>0.8719138831216676</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.009518092426641</v>
       </c>
       <c r="J21">
-        <v>0.9474138963671992</v>
+        <v>0.9474138963671984</v>
       </c>
       <c r="K21">
-        <v>0.9663034911294298</v>
+        <v>0.9663034911294291</v>
       </c>
       <c r="L21">
-        <v>0.9419290584918762</v>
+        <v>0.9419290584918755</v>
       </c>
       <c r="M21">
-        <v>0.8898093531374116</v>
+        <v>0.8898093531374108</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9012396042008939</v>
+        <v>0.9012396042008954</v>
       </c>
       <c r="D22">
-        <v>0.9405471726186369</v>
+        <v>0.9405471726186383</v>
       </c>
       <c r="E22">
-        <v>0.9135206026343307</v>
+        <v>0.9135206026343322</v>
       </c>
       <c r="F22">
-        <v>0.8554678940259843</v>
+        <v>0.8554678940259859</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.004481339071292</v>
       </c>
       <c r="J22">
-        <v>0.9370219860848693</v>
+        <v>0.9370219860848709</v>
       </c>
       <c r="K22">
-        <v>0.9573961580983472</v>
+        <v>0.9573961580983487</v>
       </c>
       <c r="L22">
-        <v>0.9310246824570257</v>
+        <v>0.9310246824570273</v>
       </c>
       <c r="M22">
-        <v>0.8745724731198301</v>
+        <v>0.8745724731198316</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9080317081570525</v>
+        <v>0.9080317081570546</v>
       </c>
       <c r="D23">
-        <v>0.9458219706117597</v>
+        <v>0.9458219706117614</v>
       </c>
       <c r="E23">
-        <v>0.9199266346320146</v>
+        <v>0.919926634632017</v>
       </c>
       <c r="F23">
-        <v>0.8643663821533782</v>
+        <v>0.8643663821533812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007204259731551</v>
+        <v>1.007204259731552</v>
       </c>
       <c r="J23">
-        <v>0.9426377886828694</v>
+        <v>0.9426377886828713</v>
       </c>
       <c r="K23">
-        <v>0.9622091025594559</v>
+        <v>0.9622091025594578</v>
       </c>
       <c r="L23">
-        <v>0.9369163117535558</v>
+        <v>0.9369163117535581</v>
       </c>
       <c r="M23">
-        <v>0.8828161391956626</v>
+        <v>0.8828161391956657</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.932239967731761</v>
+        <v>0.9322399677317609</v>
       </c>
       <c r="D24">
-        <v>0.9646684158689325</v>
+        <v>0.9646684158689326</v>
       </c>
       <c r="E24">
-        <v>0.9427909299666799</v>
+        <v>0.9427909299666802</v>
       </c>
       <c r="F24">
-        <v>0.8958414159042635</v>
+        <v>0.8958414159042636</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.016870408006008</v>
       </c>
       <c r="J24">
-        <v>0.9626212518694207</v>
+        <v>0.9626212518694208</v>
       </c>
       <c r="K24">
-        <v>0.9793457659600576</v>
+        <v>0.9793457659600577</v>
       </c>
       <c r="L24">
-        <v>0.9579031445693887</v>
+        <v>0.9579031445693889</v>
       </c>
       <c r="M24">
-        <v>0.911983009734823</v>
+        <v>0.9119830097348233</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9565003046484005</v>
+        <v>0.9565003046484009</v>
       </c>
       <c r="D25">
-        <v>0.9836181977646089</v>
+        <v>0.9836181977646091</v>
       </c>
       <c r="E25">
-        <v>0.9657538672885972</v>
+        <v>0.9657538672885975</v>
       </c>
       <c r="F25">
         <v>0.9270868669685179</v>
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026474830732136</v>
+        <v>1.026474830732137</v>
       </c>
       <c r="J25">
-        <v>0.9825858414383793</v>
+        <v>0.9825858414383797</v>
       </c>
       <c r="K25">
-        <v>0.9964762572926354</v>
+        <v>0.9964762572926358</v>
       </c>
       <c r="L25">
-        <v>0.978908140977463</v>
+        <v>0.9789081409774631</v>
       </c>
       <c r="M25">
-        <v>0.9409333803178351</v>
+        <v>0.9409333803178355</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9736659580784446</v>
+        <v>0.9737523701703729</v>
       </c>
       <c r="D2">
-        <v>0.9970565845762893</v>
+        <v>0.9971268520304372</v>
       </c>
       <c r="E2">
-        <v>0.9820310335988907</v>
+        <v>0.9821167839840111</v>
       </c>
       <c r="F2">
-        <v>0.9490668476813462</v>
+        <v>0.9491582189036499</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033201167428951</v>
+        <v>1.033240502730207</v>
       </c>
       <c r="J2">
-        <v>0.9966638937091482</v>
+        <v>0.9967475238958496</v>
       </c>
       <c r="K2">
-        <v>1.008557078737613</v>
+        <v>1.008626360028909</v>
       </c>
       <c r="L2">
-        <v>0.993746513890935</v>
+        <v>0.9938310136830375</v>
       </c>
       <c r="M2">
-        <v>0.9612845247549194</v>
+        <v>0.9613744422101531</v>
+      </c>
+      <c r="N2">
+        <v>0.9924947310212858</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9851558865080625</v>
+        <v>0.985224440187737</v>
       </c>
       <c r="D3">
-        <v>1.006062307699134</v>
+        <v>1.0061181612212</v>
       </c>
       <c r="E3">
-        <v>0.9929398593055658</v>
+        <v>0.9930079903699542</v>
       </c>
       <c r="F3">
-        <v>0.9637381308548546</v>
+        <v>0.9638101406981774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037662016219322</v>
+        <v>1.037693328516204</v>
       </c>
       <c r="J3">
-        <v>1.006059562736309</v>
+        <v>1.006126169892497</v>
       </c>
       <c r="K3">
-        <v>1.016618203395582</v>
+        <v>1.016673353016242</v>
       </c>
       <c r="L3">
-        <v>1.003663880182659</v>
+        <v>1.003731123982018</v>
       </c>
       <c r="M3">
-        <v>0.9748570231642419</v>
+        <v>0.9749280221161742</v>
+      </c>
+      <c r="N3">
+        <v>0.9999088122410805</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922106746530498</v>
+        <v>0.9922688162422476</v>
       </c>
       <c r="D4">
-        <v>1.011594996794773</v>
+        <v>1.011642420971922</v>
       </c>
       <c r="E4">
-        <v>0.9996432794113554</v>
+        <v>0.9997011132003552</v>
       </c>
       <c r="F4">
-        <v>0.9727347763089185</v>
+        <v>0.9727956157934673</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040381389621896</v>
+        <v>1.040408000666159</v>
       </c>
       <c r="J4">
-        <v>1.011815752955249</v>
+        <v>1.011872375570902</v>
       </c>
       <c r="K4">
-        <v>1.021555466022587</v>
+        <v>1.02160233398994</v>
       </c>
       <c r="L4">
-        <v>1.009746011643773</v>
+        <v>1.009803146861423</v>
       </c>
       <c r="M4">
-        <v>0.9831738018509381</v>
+        <v>0.9832338547363033</v>
+      </c>
+      <c r="N4">
+        <v>1.004432300332285</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9950941828839883</v>
+        <v>0.9951481807872274</v>
       </c>
       <c r="D5">
-        <v>1.013856924477685</v>
+        <v>1.013900988749235</v>
       </c>
       <c r="E5">
-        <v>1.002384367740008</v>
+        <v>1.002438098458442</v>
       </c>
       <c r="F5">
-        <v>0.9764101203287943</v>
+        <v>0.9764665382606385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041488119615069</v>
+        <v>1.041512854683226</v>
       </c>
       <c r="J5">
-        <v>1.014165423553131</v>
+        <v>1.014218060061243</v>
       </c>
       <c r="K5">
-        <v>1.023570456159788</v>
+        <v>1.023614019327776</v>
       </c>
       <c r="L5">
-        <v>1.012230220357301</v>
+        <v>1.012283322630614</v>
       </c>
       <c r="M5">
-        <v>0.9865698587884668</v>
+        <v>0.9866255723926686</v>
+      </c>
+      <c r="N5">
+        <v>1.00627425837776</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955737349257743</v>
+        <v>0.9956270497752697</v>
       </c>
       <c r="D6">
-        <v>1.014233128748916</v>
+        <v>1.014276638876084</v>
       </c>
       <c r="E6">
-        <v>1.002840301620977</v>
+        <v>1.002893355702679</v>
       </c>
       <c r="F6">
-        <v>0.977021275071849</v>
+        <v>0.9770769654440565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041671896151403</v>
+        <v>1.041696321699699</v>
       </c>
       <c r="J6">
-        <v>1.014556013391534</v>
+        <v>1.014607992124666</v>
       </c>
       <c r="K6">
-        <v>1.023905386152173</v>
+        <v>1.023948404053297</v>
       </c>
       <c r="L6">
-        <v>1.012643261654433</v>
+        <v>1.012695698573225</v>
       </c>
       <c r="M6">
-        <v>0.9871344790503319</v>
+        <v>0.9871894782736704</v>
+      </c>
+      <c r="N6">
+        <v>1.006580182829753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922495173109983</v>
+        <v>0.9923076026609345</v>
       </c>
       <c r="D7">
-        <v>1.011625464467027</v>
+        <v>1.011672843062832</v>
       </c>
       <c r="E7">
-        <v>0.9996801989662636</v>
+        <v>0.999737977086628</v>
       </c>
       <c r="F7">
-        <v>0.9727842918115008</v>
+        <v>0.9728450711947989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040396316975929</v>
+        <v>1.04042290257833</v>
       </c>
       <c r="J7">
-        <v>1.011847416664905</v>
+        <v>1.011903985228372</v>
       </c>
       <c r="K7">
-        <v>1.021582621309235</v>
+        <v>1.021629444457421</v>
       </c>
       <c r="L7">
-        <v>1.009779482474318</v>
+        <v>1.009836562994324</v>
       </c>
       <c r="M7">
-        <v>0.9832195609493217</v>
+        <v>0.9832795548767349</v>
+      </c>
+      <c r="N7">
+        <v>1.004457140248614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9776333766560898</v>
+        <v>0.9777134893627427</v>
       </c>
       <c r="D8">
-        <v>1.000165387002333</v>
+        <v>1.000230576332443</v>
       </c>
       <c r="E8">
-        <v>0.9857965650290746</v>
+        <v>0.985876106404345</v>
       </c>
       <c r="F8">
-        <v>0.9541358505835178</v>
+        <v>0.9542203628629025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034745631362382</v>
+        <v>1.034782142297039</v>
       </c>
       <c r="J8">
-        <v>0.9999108981242592</v>
+        <v>0.9999885380034669</v>
       </c>
       <c r="K8">
-        <v>1.01134311848162</v>
+        <v>1.011407425220508</v>
       </c>
       <c r="L8">
-        <v>0.9971724312977763</v>
+        <v>0.9972508557831594</v>
       </c>
       <c r="M8">
-        <v>0.965975134230744</v>
+        <v>0.9660583573206007</v>
+      </c>
+      <c r="N8">
+        <v>0.9950609133658673</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9484838618987508</v>
+        <v>0.9486140251242113</v>
       </c>
       <c r="D9">
-        <v>0.9773504183341511</v>
+        <v>0.9774557725690629</v>
       </c>
       <c r="E9">
-        <v>0.9581607069922254</v>
+        <v>0.9582894046554332</v>
       </c>
       <c r="F9">
-        <v>0.9167892284063437</v>
+        <v>0.91692913388293</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023312360163502</v>
+        <v>1.023371152794446</v>
       </c>
       <c r="J9">
-        <v>0.9759968045539248</v>
+        <v>0.976121633111891</v>
       </c>
       <c r="K9">
-        <v>0.9908219788337156</v>
+        <v>0.9909255200626128</v>
       </c>
       <c r="L9">
-        <v>0.9719711458978562</v>
+        <v>0.9720975120472134</v>
       </c>
       <c r="M9">
-        <v>0.9313938901473982</v>
+        <v>0.9315309506182177</v>
+      </c>
+      <c r="N9">
+        <v>0.9760782204271519</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9258708973373123</v>
+        <v>0.9260472077404898</v>
       </c>
       <c r="D10">
-        <v>0.9597034168284929</v>
+        <v>0.959845454157996</v>
       </c>
       <c r="E10">
-        <v>0.9367706315957908</v>
+        <v>0.9369443156639909</v>
       </c>
       <c r="F10">
-        <v>0.8875933152320045</v>
+        <v>0.887786131655343</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014334021417092</v>
+        <v>1.014413067471777</v>
       </c>
       <c r="J10">
-        <v>0.9573690173488311</v>
+        <v>0.9575366101539529</v>
       </c>
       <c r="K10">
-        <v>0.9748404588584012</v>
+        <v>0.974979640860985</v>
       </c>
       <c r="L10">
-        <v>0.9523837437436176</v>
+        <v>0.9525537061131027</v>
       </c>
       <c r="M10">
-        <v>0.9043392549796112</v>
+        <v>0.9045272993381721</v>
+      </c>
+      <c r="N10">
+        <v>0.9611868052640197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9150238968530222</v>
+        <v>0.9152252977606815</v>
       </c>
       <c r="D11">
-        <v>0.9512583080931718</v>
+        <v>0.9514201617305904</v>
       </c>
       <c r="E11">
-        <v>0.9265255181850705</v>
+        <v>0.9267235390524261</v>
       </c>
       <c r="F11">
-        <v>0.873493887647723</v>
+        <v>0.8737162141524809</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010002896085229</v>
+        <v>1.010092852464965</v>
       </c>
       <c r="J11">
-        <v>0.9484151263903066</v>
+        <v>0.9486057117661519</v>
       </c>
       <c r="K11">
-        <v>0.967161928191406</v>
+        <v>0.9673203011148411</v>
       </c>
       <c r="L11">
-        <v>0.942980140634988</v>
+        <v>0.9431735937819704</v>
       </c>
       <c r="M11">
-        <v>0.8912734231565359</v>
+        <v>0.8914897379341261</v>
+      </c>
+      <c r="N11">
+        <v>0.9540060934840054</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9107985718797934</v>
+        <v>0.9110103615145875</v>
       </c>
       <c r="D12">
-        <v>0.9479724404592799</v>
+        <v>0.9481424743357368</v>
       </c>
       <c r="E12">
-        <v>0.9225373637754239</v>
+        <v>0.9227454378963429</v>
       </c>
       <c r="F12">
-        <v>0.8679820697898256</v>
+        <v>0.8682167671323613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008312278451664</v>
+        <v>1.00840673323496</v>
       </c>
       <c r="J12">
-        <v>0.9449244141527625</v>
+        <v>0.9451244715612948</v>
       </c>
       <c r="K12">
-        <v>0.964169226968551</v>
+        <v>0.9643355108870179</v>
       </c>
       <c r="L12">
-        <v>0.939315992137722</v>
+        <v>0.939519131897595</v>
       </c>
       <c r="M12">
-        <v>0.8861661833190525</v>
+        <v>0.886394317057986</v>
+      </c>
+      <c r="N12">
+        <v>0.951203576452042</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9117145640497063</v>
+        <v>0.9119240702319321</v>
       </c>
       <c r="D13">
-        <v>0.9486845831015145</v>
+        <v>0.9488528201568286</v>
       </c>
       <c r="E13">
-        <v>0.9234018109721172</v>
+        <v>0.9236076765146615</v>
       </c>
       <c r="F13">
-        <v>0.8691779422364937</v>
+        <v>0.8694099128436164</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008678933680022</v>
+        <v>1.008772400627558</v>
       </c>
       <c r="J13">
-        <v>0.9456812804585641</v>
+        <v>0.945879258215397</v>
       </c>
       <c r="K13">
-        <v>0.9648180710795647</v>
+        <v>0.9649826178416414</v>
       </c>
       <c r="L13">
-        <v>0.9401103757528509</v>
+        <v>0.9403113883010803</v>
       </c>
       <c r="M13">
-        <v>0.8872742408929685</v>
+        <v>0.8874997711165364</v>
+      </c>
+      <c r="N13">
+        <v>0.9518113575309072</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9146789034654629</v>
+        <v>0.9148811389702611</v>
       </c>
       <c r="D14">
-        <v>0.950989937875888</v>
+        <v>0.9511524492095897</v>
       </c>
       <c r="E14">
-        <v>0.9261998323168648</v>
+        <v>0.9263986613238423</v>
       </c>
       <c r="F14">
-        <v>0.8730442837587935</v>
+        <v>0.8732676008141858</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009864927478048</v>
+        <v>1.009955245644016</v>
       </c>
       <c r="J14">
-        <v>0.9481301704877205</v>
+        <v>0.9483215178212809</v>
       </c>
       <c r="K14">
-        <v>0.9669176080020133</v>
+        <v>0.9670766172033002</v>
       </c>
       <c r="L14">
-        <v>0.9426809877964568</v>
+        <v>0.9428752199676788</v>
       </c>
       <c r="M14">
-        <v>0.8908568063763979</v>
+        <v>0.891074068196558</v>
+      </c>
+      <c r="N14">
+        <v>0.9537773761259835</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9164779547811338</v>
+        <v>0.9166758639845546</v>
       </c>
       <c r="D15">
-        <v>0.9523895784333063</v>
+        <v>0.9525486794650394</v>
       </c>
       <c r="E15">
-        <v>0.9278983115090106</v>
+        <v>0.9280929504147409</v>
       </c>
       <c r="F15">
-        <v>0.8753880305524891</v>
+        <v>0.8756062191202766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010584259739797</v>
+        <v>1.01067270174621</v>
       </c>
       <c r="J15">
-        <v>0.9496160280375467</v>
+        <v>0.9498034236725873</v>
       </c>
       <c r="K15">
-        <v>0.9681916113976728</v>
+        <v>0.9683473209116075</v>
       </c>
       <c r="L15">
-        <v>0.944240949713621</v>
+        <v>0.9444311420520004</v>
       </c>
       <c r="M15">
-        <v>0.8930286191119359</v>
+        <v>0.8932409764015919</v>
+      </c>
+      <c r="N15">
+        <v>0.9549698652557552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9265656244645377</v>
+        <v>0.9267403996995058</v>
       </c>
       <c r="D16">
-        <v>0.9602447720273684</v>
+        <v>0.9603855940606104</v>
       </c>
       <c r="E16">
-        <v>0.9374271490186412</v>
+        <v>0.9375993413443507</v>
       </c>
       <c r="F16">
-        <v>0.8884940523603757</v>
+        <v>0.8886850801386406</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014610943340135</v>
+        <v>1.014689319641179</v>
       </c>
       <c r="J16">
-        <v>0.9579421187192517</v>
+        <v>0.9581082991329766</v>
       </c>
       <c r="K16">
-        <v>0.9753320202491946</v>
+        <v>0.975470023992877</v>
       </c>
       <c r="L16">
-        <v>0.9529858732629755</v>
+        <v>0.9531543937337927</v>
       </c>
       <c r="M16">
-        <v>0.9051739947457879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9053603219777507</v>
+      </c>
+      <c r="N16">
+        <v>0.9616459778102288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.932588128368725</v>
+        <v>0.9327499294046953</v>
       </c>
       <c r="D17">
-        <v>0.9649399513355539</v>
+        <v>0.9650704890263458</v>
       </c>
       <c r="E17">
-        <v>0.9431201237006454</v>
+        <v>0.9432796959768855</v>
       </c>
       <c r="F17">
-        <v>0.8962916868962929</v>
+        <v>0.896467676461822</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017008900180915</v>
+        <v>1.017081605553834</v>
       </c>
       <c r="J17">
-        <v>0.9629082421299815</v>
+        <v>0.9630624589306118</v>
       </c>
       <c r="K17">
-        <v>0.9795919644550185</v>
+        <v>0.9797199907720385</v>
       </c>
       <c r="L17">
-        <v>0.9582048075749712</v>
+        <v>0.9583611198390779</v>
       </c>
       <c r="M17">
-        <v>0.9124002851504135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9125721584085795</v>
+      </c>
+      <c r="N17">
+        <v>0.9656224047679851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.936002223990408</v>
+        <v>0.936156924250326</v>
       </c>
       <c r="D18">
-        <v>0.967603333206668</v>
+        <v>0.9677282318866547</v>
       </c>
       <c r="E18">
-        <v>0.9463487674427611</v>
+        <v>0.9465014228427978</v>
       </c>
       <c r="F18">
-        <v>0.9007039121032542</v>
+        <v>0.900871730521431</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018366055050663</v>
+        <v>1.018435648474944</v>
       </c>
       <c r="J18">
-        <v>0.965721814758154</v>
+        <v>0.965869462839768</v>
       </c>
       <c r="K18">
-        <v>0.9820057319156107</v>
+        <v>0.9821282823810362</v>
       </c>
       <c r="L18">
-        <v>0.9611626445945367</v>
+        <v>0.9613122580199389</v>
       </c>
       <c r="M18">
-        <v>0.9164891317161618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9166531381974297</v>
+      </c>
+      <c r="N18">
+        <v>0.9678731729030233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9371505336563151</v>
+        <v>0.9373028850384324</v>
       </c>
       <c r="D19">
-        <v>0.9684994182994806</v>
+        <v>0.9686224499940963</v>
       </c>
       <c r="E19">
-        <v>0.9474349212345431</v>
+        <v>0.9475852870129639</v>
       </c>
       <c r="F19">
-        <v>0.9021866712011168</v>
+        <v>0.9023517959035919</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0188221438972</v>
+        <v>1.018890706596187</v>
       </c>
       <c r="J19">
-        <v>0.9666678595144519</v>
+        <v>0.9668133313508636</v>
       </c>
       <c r="K19">
-        <v>0.9828173856435668</v>
+        <v>0.9829381223124818</v>
       </c>
       <c r="L19">
-        <v>0.9621573690741209</v>
+        <v>0.9623047638159259</v>
       </c>
       <c r="M19">
-        <v>0.9178631888494414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9180245998874245</v>
+      </c>
+      <c r="N19">
+        <v>0.9686296167472203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9319524128029708</v>
+        <v>0.9321155558485178</v>
       </c>
       <c r="D20">
-        <v>0.9644441574505254</v>
+        <v>0.9645757600510962</v>
       </c>
       <c r="E20">
-        <v>0.9425190479805308</v>
+        <v>0.9426799267130932</v>
       </c>
       <c r="F20">
-        <v>0.8954694793505467</v>
+        <v>0.8956470179322222</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016756011003362</v>
+        <v>1.016829303853628</v>
       </c>
       <c r="J20">
-        <v>0.9623842096060229</v>
+        <v>0.9625396661639949</v>
       </c>
       <c r="K20">
-        <v>0.9791424176114363</v>
+        <v>0.9792714776106168</v>
       </c>
       <c r="L20">
-        <v>0.9576539891009709</v>
+        <v>0.9578115660175751</v>
       </c>
       <c r="M20">
-        <v>0.9116383278826237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9118116914056492</v>
+      </c>
+      <c r="N20">
+        <v>0.9652030230667097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138117720888437</v>
+        <v>0.9140161158756769</v>
       </c>
       <c r="D21">
-        <v>0.9503154611041404</v>
+        <v>0.9504796334403434</v>
       </c>
       <c r="E21">
-        <v>0.9253812747349554</v>
+        <v>0.9255821448026866</v>
       </c>
       <c r="F21">
-        <v>0.8719138831216676</v>
+        <v>0.87213970497118</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009518092426641</v>
+        <v>1.009609324190393</v>
       </c>
       <c r="J21">
-        <v>0.9474138963671984</v>
+        <v>0.9476071676983673</v>
       </c>
       <c r="K21">
-        <v>0.9663034911294291</v>
+        <v>0.9664641070607976</v>
       </c>
       <c r="L21">
-        <v>0.9419290584918755</v>
+        <v>0.9421252579081306</v>
       </c>
       <c r="M21">
-        <v>0.8898093531374108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8900290091998575</v>
+      </c>
+      <c r="N21">
+        <v>0.9532024172083877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9012396042008954</v>
+        <v>0.901476332192118</v>
       </c>
       <c r="D22">
-        <v>0.9405471726186383</v>
+        <v>0.9407367874802147</v>
       </c>
       <c r="E22">
-        <v>0.9135206026343322</v>
+        <v>0.9137527571654712</v>
       </c>
       <c r="F22">
-        <v>0.8554678940259859</v>
+        <v>0.8557326487870763</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.004481339071292</v>
+        <v>1.004586550063429</v>
       </c>
       <c r="J22">
-        <v>0.9370219860848709</v>
+        <v>0.9372446751196647</v>
       </c>
       <c r="K22">
-        <v>0.9573961580983487</v>
+        <v>0.9575813547745877</v>
       </c>
       <c r="L22">
-        <v>0.9310246824570273</v>
+        <v>0.9312509869608498</v>
       </c>
       <c r="M22">
-        <v>0.8745724731198316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.874829249069468</v>
+      </c>
+      <c r="N22">
+        <v>0.9448539010818969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9080317081570546</v>
+        <v>0.9082505042272714</v>
       </c>
       <c r="D23">
-        <v>0.9458219706117614</v>
+        <v>0.9459975136028497</v>
       </c>
       <c r="E23">
-        <v>0.919926634632017</v>
+        <v>0.9201414815202683</v>
       </c>
       <c r="F23">
-        <v>0.8643663821533812</v>
+        <v>0.8646094727890988</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007204259731552</v>
+        <v>1.007301742380857</v>
       </c>
       <c r="J23">
-        <v>0.9426377886828713</v>
+        <v>0.9428442192503175</v>
       </c>
       <c r="K23">
-        <v>0.9622091025594578</v>
+        <v>0.9623807108722815</v>
       </c>
       <c r="L23">
-        <v>0.9369163117535581</v>
+        <v>0.9371259719540995</v>
       </c>
       <c r="M23">
-        <v>0.8828161391956657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8830522814426719</v>
+      </c>
+      <c r="N23">
+        <v>0.9493669478506489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9322399677317609</v>
+        <v>0.9324025029587695</v>
       </c>
       <c r="D24">
-        <v>0.9646684158689326</v>
+        <v>0.9647995361867238</v>
       </c>
       <c r="E24">
-        <v>0.9427909299666802</v>
+        <v>0.9429512170145469</v>
       </c>
       <c r="F24">
-        <v>0.8958414159042636</v>
+        <v>0.8960182527251114</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016870408006008</v>
+        <v>1.016943434803918</v>
       </c>
       <c r="J24">
-        <v>0.9626212518694208</v>
+        <v>0.9627761469867603</v>
       </c>
       <c r="K24">
-        <v>0.9793457659600577</v>
+        <v>0.9794743578351511</v>
       </c>
       <c r="L24">
-        <v>0.9579031445693889</v>
+        <v>0.9580601487581327</v>
       </c>
       <c r="M24">
-        <v>0.9119830097348233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9121556981546721</v>
+      </c>
+      <c r="N24">
+        <v>0.9653927338546853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9565003046484009</v>
+        <v>0.9566157740671287</v>
       </c>
       <c r="D25">
-        <v>0.9836181977646091</v>
+        <v>0.9837118029589645</v>
       </c>
       <c r="E25">
-        <v>0.9657538672885975</v>
+        <v>0.9658681747623901</v>
       </c>
       <c r="F25">
-        <v>0.9270868669685179</v>
+        <v>0.9272102962675319</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026474830732137</v>
+        <v>1.026527118326086</v>
       </c>
       <c r="J25">
-        <v>0.9825858414383797</v>
+        <v>0.9826969096867197</v>
       </c>
       <c r="K25">
-        <v>0.9964762572926358</v>
+        <v>0.996568346769656</v>
       </c>
       <c r="L25">
-        <v>0.9789081409774631</v>
+        <v>0.9790205081211556</v>
       </c>
       <c r="M25">
-        <v>0.9409333803178355</v>
+        <v>0.9410544798788085</v>
+      </c>
+      <c r="N25">
+        <v>0.9813260833848146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.039165879685413</v>
+      </c>
+      <c r="D2">
+        <v>1.054432908182619</v>
+      </c>
+      <c r="E2">
+        <v>1.056404764397716</v>
+      </c>
+      <c r="F2">
+        <v>1.062209089417119</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.060508427636382</v>
+      </c>
+      <c r="J2">
+        <v>1.060235081642937</v>
+      </c>
+      <c r="K2">
+        <v>1.065182625159244</v>
+      </c>
+      <c r="L2">
+        <v>1.067130481497764</v>
+      </c>
+      <c r="M2">
+        <v>1.072864802500641</v>
+      </c>
+      <c r="N2">
+        <v>1.022938613725791</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.044733680657365</v>
+      </c>
+      <c r="D3">
+        <v>1.058894268106539</v>
+      </c>
+      <c r="E3">
+        <v>1.061542198325485</v>
+      </c>
+      <c r="F3">
+        <v>1.067393086884301</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.062482056508607</v>
+      </c>
+      <c r="J3">
+        <v>1.064074937619195</v>
+      </c>
+      <c r="K3">
+        <v>1.068825213866394</v>
+      </c>
+      <c r="L3">
+        <v>1.071443835307453</v>
+      </c>
+      <c r="M3">
+        <v>1.077230595875685</v>
+      </c>
+      <c r="N3">
+        <v>1.024289823369364</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.048254578721868</v>
+      </c>
+      <c r="D4">
+        <v>1.061718125740502</v>
+      </c>
+      <c r="E4">
+        <v>1.064796063693929</v>
+      </c>
+      <c r="F4">
+        <v>1.070676777605676</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.063720862303594</v>
+      </c>
+      <c r="J4">
+        <v>1.066499592437611</v>
+      </c>
+      <c r="K4">
+        <v>1.071124639606282</v>
+      </c>
+      <c r="L4">
+        <v>1.074170636209503</v>
+      </c>
+      <c r="M4">
+        <v>1.079990945219485</v>
+      </c>
+      <c r="N4">
+        <v>1.025142201234512</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.049715993269368</v>
+      </c>
+      <c r="D5">
+        <v>1.062890797903794</v>
+      </c>
+      <c r="E5">
+        <v>1.066147827055149</v>
+      </c>
+      <c r="F5">
+        <v>1.072041009024091</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.064232793760396</v>
+      </c>
+      <c r="J5">
+        <v>1.067505101587053</v>
+      </c>
+      <c r="K5">
+        <v>1.072078047866492</v>
+      </c>
+      <c r="L5">
+        <v>1.07530220674465</v>
+      </c>
+      <c r="M5">
+        <v>1.081136530862528</v>
+      </c>
+      <c r="N5">
+        <v>1.025495471831749</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.049960293459619</v>
+      </c>
+      <c r="D6">
+        <v>1.063086862286302</v>
+      </c>
+      <c r="E6">
+        <v>1.066373865716851</v>
+      </c>
+      <c r="F6">
+        <v>1.072269137059183</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.064318237942528</v>
+      </c>
+      <c r="J6">
+        <v>1.067673136110919</v>
+      </c>
+      <c r="K6">
+        <v>1.072237365483595</v>
+      </c>
+      <c r="L6">
+        <v>1.075491352698953</v>
+      </c>
+      <c r="M6">
+        <v>1.081328024905572</v>
+      </c>
+      <c r="N6">
+        <v>1.025554495435256</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.04827417891953</v>
+      </c>
+      <c r="D7">
+        <v>1.061733851173374</v>
+      </c>
+      <c r="E7">
+        <v>1.064814188639853</v>
+      </c>
+      <c r="F7">
+        <v>1.070695069424414</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.063727737198409</v>
+      </c>
+      <c r="J7">
+        <v>1.066513081687321</v>
+      </c>
+      <c r="K7">
+        <v>1.071137430580376</v>
+      </c>
+      <c r="L7">
+        <v>1.074185813603851</v>
+      </c>
+      <c r="M7">
+        <v>1.080006310228657</v>
+      </c>
+      <c r="N7">
+        <v>1.025146941334807</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.041065000631409</v>
+      </c>
+      <c r="D8">
+        <v>1.055954044483681</v>
+      </c>
+      <c r="E8">
+        <v>1.058155990077816</v>
+      </c>
+      <c r="F8">
+        <v>1.063976115916677</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.061183532682533</v>
+      </c>
+      <c r="J8">
+        <v>1.06154553892184</v>
+      </c>
+      <c r="K8">
+        <v>1.066425894266095</v>
+      </c>
+      <c r="L8">
+        <v>1.068601870664422</v>
+      </c>
+      <c r="M8">
+        <v>1.074353995192839</v>
+      </c>
+      <c r="N8">
+        <v>1.023399919926574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.027695075619129</v>
+      </c>
+      <c r="D9">
+        <v>1.045258835692167</v>
+      </c>
+      <c r="E9">
+        <v>1.045850946494606</v>
+      </c>
+      <c r="F9">
+        <v>1.051561575249229</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.056392908316325</v>
+      </c>
+      <c r="J9">
+        <v>1.052306375881704</v>
+      </c>
+      <c r="K9">
+        <v>1.057657946026144</v>
+      </c>
+      <c r="L9">
+        <v>1.05824148246003</v>
+      </c>
+      <c r="M9">
+        <v>1.063870042762838</v>
+      </c>
+      <c r="N9">
+        <v>1.020144478026061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.018273764391706</v>
+      </c>
+      <c r="D10">
+        <v>1.03774263682639</v>
+      </c>
+      <c r="E10">
+        <v>1.03721245083126</v>
+      </c>
+      <c r="F10">
+        <v>1.042848287105381</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.052970778958163</v>
+      </c>
+      <c r="J10">
+        <v>1.045780661287654</v>
+      </c>
+      <c r="K10">
+        <v>1.051462309723759</v>
+      </c>
+      <c r="L10">
+        <v>1.050940827603807</v>
+      </c>
+      <c r="M10">
+        <v>1.056484723989134</v>
+      </c>
+      <c r="N10">
+        <v>1.017841759902098</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.014058866993004</v>
+      </c>
+      <c r="D11">
+        <v>1.034385882140983</v>
+      </c>
+      <c r="E11">
+        <v>1.033356254584257</v>
+      </c>
+      <c r="F11">
+        <v>1.038959243936632</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.051429421876982</v>
+      </c>
+      <c r="J11">
+        <v>1.04285825473818</v>
+      </c>
+      <c r="K11">
+        <v>1.048687213999394</v>
+      </c>
+      <c r="L11">
+        <v>1.047675392705609</v>
+      </c>
+      <c r="M11">
+        <v>1.05318203558133</v>
+      </c>
+      <c r="N11">
+        <v>1.016809921980168</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.012471525785556</v>
+      </c>
+      <c r="D12">
+        <v>1.033122688918085</v>
+      </c>
+      <c r="E12">
+        <v>1.031905348724762</v>
+      </c>
+      <c r="F12">
+        <v>1.037496064874027</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.050847442558021</v>
+      </c>
+      <c r="J12">
+        <v>1.041757288735952</v>
+      </c>
+      <c r="K12">
+        <v>1.047641681529473</v>
+      </c>
+      <c r="L12">
+        <v>1.046445798261814</v>
+      </c>
+      <c r="M12">
+        <v>1.051938509826007</v>
+      </c>
+      <c r="N12">
+        <v>1.01642111922886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.012813023468354</v>
+      </c>
+      <c r="D13">
+        <v>1.033394404666702</v>
+      </c>
+      <c r="E13">
+        <v>1.032217431869277</v>
+      </c>
+      <c r="F13">
+        <v>1.037810783988768</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.050972715325058</v>
+      </c>
+      <c r="J13">
+        <v>1.0419941646898</v>
+      </c>
+      <c r="K13">
+        <v>1.047866633441202</v>
+      </c>
+      <c r="L13">
+        <v>1.046710321839146</v>
+      </c>
+      <c r="M13">
+        <v>1.052206026032396</v>
+      </c>
+      <c r="N13">
+        <v>1.016504774390575</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.013928108894937</v>
+      </c>
+      <c r="D14">
+        <v>1.034281805668171</v>
+      </c>
+      <c r="E14">
+        <v>1.033236707614368</v>
+      </c>
+      <c r="F14">
+        <v>1.038838683954899</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.051381511142193</v>
+      </c>
+      <c r="J14">
+        <v>1.042767569417202</v>
+      </c>
+      <c r="K14">
+        <v>1.048601095882539</v>
+      </c>
+      <c r="L14">
+        <v>1.047574100195442</v>
+      </c>
+      <c r="M14">
+        <v>1.053079593443068</v>
+      </c>
+      <c r="N14">
+        <v>1.0167778981791</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.014612225095807</v>
+      </c>
+      <c r="D15">
+        <v>1.034826365719173</v>
+      </c>
+      <c r="E15">
+        <v>1.03386222339013</v>
+      </c>
+      <c r="F15">
+        <v>1.039469503711231</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.051632115632247</v>
+      </c>
+      <c r="J15">
+        <v>1.043242012856816</v>
+      </c>
+      <c r="K15">
+        <v>1.049051642329557</v>
+      </c>
+      <c r="L15">
+        <v>1.048104062344722</v>
+      </c>
+      <c r="M15">
+        <v>1.053615574396262</v>
+      </c>
+      <c r="N15">
+        <v>1.01694543589757</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.018550523884286</v>
+      </c>
+      <c r="D16">
+        <v>1.03796317776537</v>
+      </c>
+      <c r="E16">
+        <v>1.037465839673665</v>
+      </c>
+      <c r="F16">
+        <v>1.043103845909035</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.053071777041197</v>
+      </c>
+      <c r="J16">
+        <v>1.045972496941901</v>
+      </c>
+      <c r="K16">
+        <v>1.051644465970129</v>
+      </c>
+      <c r="L16">
+        <v>1.051155263975288</v>
+      </c>
+      <c r="M16">
+        <v>1.05670161986742</v>
+      </c>
+      <c r="N16">
+        <v>1.017909481504377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.020983713692808</v>
+      </c>
+      <c r="D17">
+        <v>1.039902783359223</v>
+      </c>
+      <c r="E17">
+        <v>1.039694533221221</v>
+      </c>
+      <c r="F17">
+        <v>1.0453516873549</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.053958552524842</v>
+      </c>
+      <c r="J17">
+        <v>1.047658734185588</v>
+      </c>
+      <c r="K17">
+        <v>1.053245564984862</v>
+      </c>
+      <c r="L17">
+        <v>1.05304061692645</v>
+      </c>
+      <c r="M17">
+        <v>1.058608667416757</v>
+      </c>
+      <c r="N17">
+        <v>1.018504687391003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.022389987934057</v>
+      </c>
+      <c r="D18">
+        <v>1.041024333865985</v>
+      </c>
+      <c r="E18">
+        <v>1.040983415698084</v>
+      </c>
+      <c r="F18">
+        <v>1.046651694182553</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.054470083937013</v>
+      </c>
+      <c r="J18">
+        <v>1.048633021203431</v>
+      </c>
+      <c r="K18">
+        <v>1.054170611263102</v>
+      </c>
+      <c r="L18">
+        <v>1.054130330055134</v>
+      </c>
+      <c r="M18">
+        <v>1.0597109776938</v>
+      </c>
+      <c r="N18">
+        <v>1.018848530901274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.022867332605067</v>
+      </c>
+      <c r="D19">
+        <v>1.041405122048346</v>
+      </c>
+      <c r="E19">
+        <v>1.041421046261043</v>
+      </c>
+      <c r="F19">
+        <v>1.04709311044109</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.05464354905642</v>
+      </c>
+      <c r="J19">
+        <v>1.048963682823129</v>
+      </c>
+      <c r="K19">
+        <v>1.054484552478201</v>
+      </c>
+      <c r="L19">
+        <v>1.054500230366555</v>
+      </c>
+      <c r="M19">
+        <v>1.060085163782694</v>
+      </c>
+      <c r="N19">
+        <v>1.018965216867633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.020724006109384</v>
+      </c>
+      <c r="D20">
+        <v>1.039695701418869</v>
+      </c>
+      <c r="E20">
+        <v>1.039456569316456</v>
+      </c>
+      <c r="F20">
+        <v>1.045111673665525</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.053864003993385</v>
+      </c>
+      <c r="J20">
+        <v>1.047478781787506</v>
+      </c>
+      <c r="K20">
+        <v>1.053074703384093</v>
+      </c>
+      <c r="L20">
+        <v>1.052839375846727</v>
+      </c>
+      <c r="M20">
+        <v>1.058405104633995</v>
+      </c>
+      <c r="N20">
+        <v>1.018441174041056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.013600356021501</v>
+      </c>
+      <c r="D21">
+        <v>1.034020947790592</v>
+      </c>
+      <c r="E21">
+        <v>1.032937078046487</v>
+      </c>
+      <c r="F21">
+        <v>1.038536516792524</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.051261396111147</v>
+      </c>
+      <c r="J21">
+        <v>1.042540255414606</v>
+      </c>
+      <c r="K21">
+        <v>1.048385229170726</v>
+      </c>
+      <c r="L21">
+        <v>1.04732020763795</v>
+      </c>
+      <c r="M21">
+        <v>1.052822820877184</v>
+      </c>
+      <c r="N21">
+        <v>1.016697625388832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.008994864619316</v>
+      </c>
+      <c r="D22">
+        <v>1.030357882048802</v>
+      </c>
+      <c r="E22">
+        <v>1.028730079190789</v>
+      </c>
+      <c r="F22">
+        <v>1.034294098329018</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.049570072425723</v>
+      </c>
+      <c r="J22">
+        <v>1.039345278595806</v>
+      </c>
+      <c r="K22">
+        <v>1.045351014539556</v>
+      </c>
+      <c r="L22">
+        <v>1.043753093432489</v>
+      </c>
+      <c r="M22">
+        <v>1.049215478893149</v>
+      </c>
+      <c r="N22">
+        <v>1.015569204637731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.011448819875117</v>
+      </c>
+      <c r="D23">
+        <v>1.032309113142548</v>
+      </c>
+      <c r="E23">
+        <v>1.030970935869424</v>
+      </c>
+      <c r="F23">
+        <v>1.036553772516184</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.050472064590373</v>
+      </c>
+      <c r="J23">
+        <v>1.041047849734863</v>
+      </c>
+      <c r="K23">
+        <v>1.046967946585593</v>
+      </c>
+      <c r="L23">
+        <v>1.04565364322534</v>
+      </c>
+      <c r="M23">
+        <v>1.051137407381997</v>
+      </c>
+      <c r="N23">
+        <v>1.016170563805938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.020841396747629</v>
+      </c>
+      <c r="D24">
+        <v>1.039789303010861</v>
+      </c>
+      <c r="E24">
+        <v>1.039564129106879</v>
+      </c>
+      <c r="F24">
+        <v>1.045220159802054</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.053906744012562</v>
+      </c>
+      <c r="J24">
+        <v>1.047560123099053</v>
+      </c>
+      <c r="K24">
+        <v>1.05315193566518</v>
+      </c>
+      <c r="L24">
+        <v>1.052930338799282</v>
+      </c>
+      <c r="M24">
+        <v>1.058497116839871</v>
+      </c>
+      <c r="N24">
+        <v>1.018469883257786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.031236378500238</v>
+      </c>
+      <c r="D25">
+        <v>1.04808850503105</v>
+      </c>
+      <c r="E25">
+        <v>1.049104868211491</v>
+      </c>
+      <c r="F25">
+        <v>1.054844109255226</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.057669958990754</v>
+      </c>
+      <c r="J25">
+        <v>1.054756378749087</v>
+      </c>
+      <c r="K25">
+        <v>1.059983509698354</v>
+      </c>
+      <c r="L25">
+        <v>1.060985885237996</v>
+      </c>
+      <c r="M25">
+        <v>1.066646776755757</v>
+      </c>
+      <c r="N25">
+        <v>1.021008378736263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.039165879685413</v>
+        <v>1.069229783573056</v>
       </c>
       <c r="D2">
-        <v>1.054432908182619</v>
+        <v>1.073452509572986</v>
       </c>
       <c r="E2">
-        <v>1.056404764397716</v>
+        <v>1.082210962593434</v>
       </c>
       <c r="F2">
-        <v>1.062209089417119</v>
+        <v>1.087900031501516</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060508427636382</v>
+        <v>1.054513651681027</v>
       </c>
       <c r="J2">
-        <v>1.060235081642937</v>
+        <v>1.074165567252045</v>
       </c>
       <c r="K2">
-        <v>1.065182625159244</v>
+        <v>1.076144332288658</v>
       </c>
       <c r="L2">
-        <v>1.067130481497764</v>
+        <v>1.084879771175308</v>
       </c>
       <c r="M2">
-        <v>1.072864802500641</v>
+        <v>1.090554105452439</v>
       </c>
       <c r="N2">
-        <v>1.022938613725791</v>
+        <v>1.028268844460397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.044733680657365</v>
+        <v>1.070391972735182</v>
       </c>
       <c r="D3">
-        <v>1.058894268106539</v>
+        <v>1.074403302909823</v>
       </c>
       <c r="E3">
-        <v>1.061542198325485</v>
+        <v>1.083334106665573</v>
       </c>
       <c r="F3">
-        <v>1.067393086884301</v>
+        <v>1.089035133506138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062482056508607</v>
+        <v>1.054864250002646</v>
       </c>
       <c r="J3">
-        <v>1.064074937619195</v>
+        <v>1.074983822671005</v>
       </c>
       <c r="K3">
-        <v>1.068825213866394</v>
+        <v>1.076911733837148</v>
       </c>
       <c r="L3">
-        <v>1.071443835307453</v>
+        <v>1.08582076818021</v>
       </c>
       <c r="M3">
-        <v>1.077230595875685</v>
+        <v>1.091508098975943</v>
       </c>
       <c r="N3">
-        <v>1.024289823369364</v>
+        <v>1.028551202615609</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.048254578721868</v>
+        <v>1.071144077049202</v>
       </c>
       <c r="D4">
-        <v>1.061718125740502</v>
+        <v>1.075018571266204</v>
       </c>
       <c r="E4">
-        <v>1.064796063693929</v>
+        <v>1.084061274338114</v>
       </c>
       <c r="F4">
-        <v>1.070676777605676</v>
+        <v>1.089770071559804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063720862303594</v>
+        <v>1.055089950305015</v>
       </c>
       <c r="J4">
-        <v>1.066499592437611</v>
+        <v>1.075512792434533</v>
       </c>
       <c r="K4">
-        <v>1.071124639606282</v>
+        <v>1.077407708074269</v>
       </c>
       <c r="L4">
-        <v>1.074170636209503</v>
+        <v>1.086429479284547</v>
       </c>
       <c r="M4">
-        <v>1.079990945219485</v>
+        <v>1.092125253488765</v>
       </c>
       <c r="N4">
-        <v>1.025142201234512</v>
+        <v>1.028733533588351</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049715993269368</v>
+        <v>1.071460284241375</v>
       </c>
       <c r="D5">
-        <v>1.062890797903794</v>
+        <v>1.075277240183781</v>
       </c>
       <c r="E5">
-        <v>1.066147827055149</v>
+        <v>1.084367076207081</v>
       </c>
       <c r="F5">
-        <v>1.072041009024091</v>
+        <v>1.090079147923228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064232793760396</v>
+        <v>1.055184557097266</v>
       </c>
       <c r="J5">
-        <v>1.067505101587053</v>
+        <v>1.0757350529211</v>
       </c>
       <c r="K5">
-        <v>1.072078047866492</v>
+        <v>1.077616075669626</v>
       </c>
       <c r="L5">
-        <v>1.07530220674465</v>
+        <v>1.086685339489801</v>
       </c>
       <c r="M5">
-        <v>1.081136530862528</v>
+        <v>1.092384671365606</v>
       </c>
       <c r="N5">
-        <v>1.025495471831749</v>
+        <v>1.028810096072822</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049960293459619</v>
+        <v>1.071513378169474</v>
       </c>
       <c r="D6">
-        <v>1.063086862286302</v>
+        <v>1.075320672430464</v>
       </c>
       <c r="E6">
-        <v>1.066373865716851</v>
+        <v>1.084418427596908</v>
       </c>
       <c r="F6">
-        <v>1.072269137059183</v>
+        <v>1.090131049573262</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064318237942528</v>
+        <v>1.055200425718993</v>
       </c>
       <c r="J6">
-        <v>1.067673136110919</v>
+        <v>1.075772364503068</v>
       </c>
       <c r="K6">
-        <v>1.072237365483595</v>
+        <v>1.077651053306001</v>
       </c>
       <c r="L6">
-        <v>1.075491352698953</v>
+        <v>1.086728297096312</v>
       </c>
       <c r="M6">
-        <v>1.081328024905572</v>
+        <v>1.092428226792839</v>
       </c>
       <c r="N6">
-        <v>1.025554495435256</v>
+        <v>1.02882294600487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.04827417891953</v>
+        <v>1.071148302135423</v>
       </c>
       <c r="D7">
-        <v>1.061733851173374</v>
+        <v>1.075022027573035</v>
       </c>
       <c r="E7">
-        <v>1.064814188639853</v>
+        <v>1.084065360081903</v>
       </c>
       <c r="F7">
-        <v>1.070695069424414</v>
+        <v>1.089774201026829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063727737198409</v>
+        <v>1.055091215536242</v>
       </c>
       <c r="J7">
-        <v>1.066513081687321</v>
+        <v>1.075515762754774</v>
       </c>
       <c r="K7">
-        <v>1.071137430580376</v>
+        <v>1.077410492841912</v>
       </c>
       <c r="L7">
-        <v>1.074185813603851</v>
+        <v>1.086432898265427</v>
       </c>
       <c r="M7">
-        <v>1.080006310228657</v>
+        <v>1.092128719975779</v>
       </c>
       <c r="N7">
-        <v>1.025146941334807</v>
+        <v>1.028734556971526</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.041065000631409</v>
+        <v>1.069622532728148</v>
       </c>
       <c r="D8">
-        <v>1.055954044483681</v>
+        <v>1.073773826143135</v>
       </c>
       <c r="E8">
-        <v>1.058155990077816</v>
+        <v>1.082590448022931</v>
       </c>
       <c r="F8">
-        <v>1.063976115916677</v>
+        <v>1.088283551363382</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061183532682533</v>
+        <v>1.054632378355372</v>
       </c>
       <c r="J8">
-        <v>1.06154553892184</v>
+        <v>1.074442203480069</v>
       </c>
       <c r="K8">
-        <v>1.066425894266095</v>
+        <v>1.076403800717515</v>
       </c>
       <c r="L8">
-        <v>1.068601870664422</v>
+        <v>1.085197822385043</v>
       </c>
       <c r="M8">
-        <v>1.074353995192839</v>
+        <v>1.090876541883316</v>
       </c>
       <c r="N8">
-        <v>1.023399919926574</v>
+        <v>1.028364346080022</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.027695075619129</v>
+        <v>1.06693458067245</v>
       </c>
       <c r="D9">
-        <v>1.045258835692167</v>
+        <v>1.071574645521977</v>
       </c>
       <c r="E9">
-        <v>1.045850946494606</v>
+        <v>1.079994649240101</v>
       </c>
       <c r="F9">
-        <v>1.051561575249229</v>
+        <v>1.085660273262468</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056392908316325</v>
+        <v>1.053814955447302</v>
       </c>
       <c r="J9">
-        <v>1.052306375881704</v>
+        <v>1.072546636691924</v>
       </c>
       <c r="K9">
-        <v>1.057657946026144</v>
+        <v>1.074625380257627</v>
       </c>
       <c r="L9">
-        <v>1.05824148246003</v>
+        <v>1.083020087816883</v>
       </c>
       <c r="M9">
-        <v>1.063870042762838</v>
+        <v>1.088668931039165</v>
       </c>
       <c r="N9">
-        <v>1.020144478026061</v>
+        <v>1.027709125724138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.018273764391706</v>
+        <v>1.06514298703034</v>
       </c>
       <c r="D10">
-        <v>1.03774263682639</v>
+        <v>1.07010871941003</v>
       </c>
       <c r="E10">
-        <v>1.03721245083126</v>
+        <v>1.078266227960562</v>
       </c>
       <c r="F10">
-        <v>1.042848287105381</v>
+        <v>1.083913703659388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052970778958163</v>
+        <v>1.053264016473825</v>
       </c>
       <c r="J10">
-        <v>1.045780661287654</v>
+        <v>1.071280331144992</v>
       </c>
       <c r="K10">
-        <v>1.051462309723759</v>
+        <v>1.073436720128075</v>
       </c>
       <c r="L10">
-        <v>1.050940827603807</v>
+        <v>1.08156731336182</v>
       </c>
       <c r="M10">
-        <v>1.056484723989134</v>
+        <v>1.087196415501956</v>
       </c>
       <c r="N10">
-        <v>1.017841759902098</v>
+        <v>1.027270387363691</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.014058866993004</v>
+        <v>1.064367281491755</v>
       </c>
       <c r="D11">
-        <v>1.034385882140983</v>
+        <v>1.06947399930937</v>
       </c>
       <c r="E11">
-        <v>1.033356254584257</v>
+        <v>1.077518295650315</v>
       </c>
       <c r="F11">
-        <v>1.038959243936632</v>
+        <v>1.083157953866322</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051429421876982</v>
+        <v>1.053024030078302</v>
       </c>
       <c r="J11">
-        <v>1.04285825473818</v>
+        <v>1.070731384722</v>
       </c>
       <c r="K11">
-        <v>1.048687213999394</v>
+        <v>1.072921289232543</v>
       </c>
       <c r="L11">
-        <v>1.047675392705609</v>
+        <v>1.080938013228559</v>
       </c>
       <c r="M11">
-        <v>1.05318203558133</v>
+        <v>1.086558609453185</v>
       </c>
       <c r="N11">
-        <v>1.016809921980168</v>
+        <v>1.027079951729694</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.012471525785556</v>
+        <v>1.06407915853064</v>
       </c>
       <c r="D12">
-        <v>1.033122688918085</v>
+        <v>1.069238240900603</v>
       </c>
       <c r="E12">
-        <v>1.031905348724762</v>
+        <v>1.077240552473874</v>
       </c>
       <c r="F12">
-        <v>1.037496064874027</v>
+        <v>1.082877313094762</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050847442558021</v>
+        <v>1.052934673862356</v>
       </c>
       <c r="J12">
-        <v>1.041757288735952</v>
+        <v>1.070527386583868</v>
       </c>
       <c r="K12">
-        <v>1.047641681529473</v>
+        <v>1.072729724535431</v>
       </c>
       <c r="L12">
-        <v>1.046445798261814</v>
+        <v>1.080704226490004</v>
       </c>
       <c r="M12">
-        <v>1.051938509826007</v>
+        <v>1.086321669592536</v>
       </c>
       <c r="N12">
-        <v>1.01642111922886</v>
+        <v>1.027009146401827</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.012813023468354</v>
+        <v>1.064140961515721</v>
       </c>
       <c r="D13">
-        <v>1.033394404666702</v>
+        <v>1.069288811665158</v>
       </c>
       <c r="E13">
-        <v>1.032217431869277</v>
+        <v>1.077300126073659</v>
       </c>
       <c r="F13">
-        <v>1.037810783988768</v>
+        <v>1.082937507959072</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050972715325058</v>
+        <v>1.052953850789391</v>
       </c>
       <c r="J13">
-        <v>1.0419941646898</v>
+        <v>1.070571149186613</v>
       </c>
       <c r="K13">
-        <v>1.047866633441202</v>
+        <v>1.072770820832152</v>
       </c>
       <c r="L13">
-        <v>1.046710321839146</v>
+        <v>1.080754376208911</v>
       </c>
       <c r="M13">
-        <v>1.052206026032396</v>
+        <v>1.086372495378869</v>
       </c>
       <c r="N13">
-        <v>1.016504774390575</v>
+        <v>1.027024337511317</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.013928108894937</v>
+        <v>1.064343464989988</v>
       </c>
       <c r="D14">
-        <v>1.034281805668171</v>
+        <v>1.069454511348439</v>
       </c>
       <c r="E14">
-        <v>1.033236707614368</v>
+        <v>1.077495335844526</v>
       </c>
       <c r="F14">
-        <v>1.038838683954899</v>
+        <v>1.083134754418473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051381511142193</v>
+        <v>1.053016648244867</v>
       </c>
       <c r="J14">
-        <v>1.042767569417202</v>
+        <v>1.070714524114059</v>
       </c>
       <c r="K14">
-        <v>1.048601095882539</v>
+        <v>1.072905456696642</v>
       </c>
       <c r="L14">
-        <v>1.047574100195442</v>
+        <v>1.080918689095568</v>
       </c>
       <c r="M14">
-        <v>1.053079593443068</v>
+        <v>1.086539024552364</v>
       </c>
       <c r="N14">
-        <v>1.0167778981791</v>
+        <v>1.027074100348415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.014612225095807</v>
+        <v>1.064468235165037</v>
       </c>
       <c r="D15">
-        <v>1.034826365719173</v>
+        <v>1.069556605027664</v>
       </c>
       <c r="E15">
-        <v>1.03386222339013</v>
+        <v>1.077615620569715</v>
       </c>
       <c r="F15">
-        <v>1.039469503711231</v>
+        <v>1.083256294832564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051632115632247</v>
+        <v>1.053055311386006</v>
       </c>
       <c r="J15">
-        <v>1.043242012856816</v>
+        <v>1.070802849530775</v>
       </c>
       <c r="K15">
-        <v>1.049051642329557</v>
+        <v>1.072988395609159</v>
       </c>
       <c r="L15">
-        <v>1.048104062344722</v>
+        <v>1.081019922810384</v>
       </c>
       <c r="M15">
-        <v>1.053615574396262</v>
+        <v>1.086641624637407</v>
       </c>
       <c r="N15">
-        <v>1.01694543589757</v>
+        <v>1.027104751721665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.018550523884286</v>
+        <v>1.065194469334333</v>
       </c>
       <c r="D16">
-        <v>1.03796317776537</v>
+        <v>1.070150844404103</v>
       </c>
       <c r="E16">
-        <v>1.037465839673665</v>
+        <v>1.078315875929231</v>
       </c>
       <c r="F16">
-        <v>1.043103845909035</v>
+        <v>1.08396387131186</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053071777041197</v>
+        <v>1.05327991350551</v>
       </c>
       <c r="J16">
-        <v>1.045972496941901</v>
+        <v>1.071316749626802</v>
       </c>
       <c r="K16">
-        <v>1.051644465970129</v>
+        <v>1.073470912083626</v>
       </c>
       <c r="L16">
-        <v>1.051155263975288</v>
+        <v>1.081609072838556</v>
       </c>
       <c r="M16">
-        <v>1.05670161986742</v>
+        <v>1.087238740377759</v>
       </c>
       <c r="N16">
-        <v>1.017909481504377</v>
+        <v>1.027283016270623</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.020983713692808</v>
+        <v>1.065650033646336</v>
       </c>
       <c r="D17">
-        <v>1.039902783359223</v>
+        <v>1.070523604275136</v>
       </c>
       <c r="E17">
-        <v>1.039694533221221</v>
+        <v>1.078755257066142</v>
       </c>
       <c r="F17">
-        <v>1.0453516873549</v>
+        <v>1.084407855752632</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053958552524842</v>
+        <v>1.05342041842821</v>
       </c>
       <c r="J17">
-        <v>1.047658734185588</v>
+        <v>1.071638937029248</v>
       </c>
       <c r="K17">
-        <v>1.053245564984862</v>
+        <v>1.073773385225288</v>
       </c>
       <c r="L17">
-        <v>1.05304061692645</v>
+        <v>1.081978566541368</v>
       </c>
       <c r="M17">
-        <v>1.058608667416757</v>
+        <v>1.087613242053484</v>
       </c>
       <c r="N17">
-        <v>1.018504687391003</v>
+        <v>1.027394713953904</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.022389987934057</v>
+        <v>1.065915763092526</v>
       </c>
       <c r="D18">
-        <v>1.041024333865985</v>
+        <v>1.070741032264298</v>
       </c>
       <c r="E18">
-        <v>1.040983415698084</v>
+        <v>1.079011587544981</v>
       </c>
       <c r="F18">
-        <v>1.046651694182553</v>
+        <v>1.084666875201409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054470083937013</v>
+        <v>1.053502234987407</v>
       </c>
       <c r="J18">
-        <v>1.048633021203431</v>
+        <v>1.071826802965498</v>
       </c>
       <c r="K18">
-        <v>1.054170611263102</v>
+        <v>1.073949741983957</v>
       </c>
       <c r="L18">
-        <v>1.054130330055134</v>
+        <v>1.082194062934518</v>
       </c>
       <c r="M18">
-        <v>1.0597109776938</v>
+        <v>1.087831663572986</v>
       </c>
       <c r="N18">
-        <v>1.018848530901274</v>
+        <v>1.027459821039273</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022867332605067</v>
+        <v>1.066006371108652</v>
       </c>
       <c r="D19">
-        <v>1.041405122048346</v>
+        <v>1.070815170190755</v>
       </c>
       <c r="E19">
-        <v>1.041421046261043</v>
+        <v>1.079098997591398</v>
       </c>
       <c r="F19">
-        <v>1.04709311044109</v>
+        <v>1.084755202784666</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05464354905642</v>
+        <v>1.053530108992562</v>
       </c>
       <c r="J19">
-        <v>1.048963682823129</v>
+        <v>1.071890850149547</v>
       </c>
       <c r="K19">
-        <v>1.054484552478201</v>
+        <v>1.074009863104901</v>
       </c>
       <c r="L19">
-        <v>1.054500230366555</v>
+        <v>1.082267537750613</v>
       </c>
       <c r="M19">
-        <v>1.060085163782694</v>
+        <v>1.087906136469447</v>
       </c>
       <c r="N19">
-        <v>1.018965216867633</v>
+        <v>1.027482013364354</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.020724006109384</v>
+        <v>1.065601155245287</v>
       </c>
       <c r="D20">
-        <v>1.039695701418869</v>
+        <v>1.07048361031364</v>
       </c>
       <c r="E20">
-        <v>1.039456569316456</v>
+        <v>1.0787081107831</v>
       </c>
       <c r="F20">
-        <v>1.045111673665525</v>
+        <v>1.084360215170853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053864003993385</v>
+        <v>1.053405357813002</v>
       </c>
       <c r="J20">
-        <v>1.047478781787506</v>
+        <v>1.071604375635233</v>
       </c>
       <c r="K20">
-        <v>1.053074703384093</v>
+        <v>1.073740940037248</v>
       </c>
       <c r="L20">
-        <v>1.052839375846727</v>
+        <v>1.081938925751239</v>
       </c>
       <c r="M20">
-        <v>1.058405104633995</v>
+        <v>1.08757306353506</v>
       </c>
       <c r="N20">
-        <v>1.018441174041056</v>
+        <v>1.027382734430642</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.013600356021501</v>
+        <v>1.064283832537129</v>
       </c>
       <c r="D21">
-        <v>1.034020947790592</v>
+        <v>1.069405716790071</v>
       </c>
       <c r="E21">
-        <v>1.032937078046487</v>
+        <v>1.07743784944589</v>
       </c>
       <c r="F21">
-        <v>1.038536516792524</v>
+        <v>1.083076668095396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051261396111147</v>
+        <v>1.052998161885485</v>
       </c>
       <c r="J21">
-        <v>1.042540255414606</v>
+        <v>1.070672306399231</v>
       </c>
       <c r="K21">
-        <v>1.048385229170726</v>
+        <v>1.072865812850937</v>
       </c>
       <c r="L21">
-        <v>1.04732020763795</v>
+        <v>1.080870304063251</v>
       </c>
       <c r="M21">
-        <v>1.052822820877184</v>
+        <v>1.086489986703195</v>
       </c>
       <c r="N21">
-        <v>1.016697625388832</v>
+        <v>1.027059448340159</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.008994864619316</v>
+        <v>1.063455628638114</v>
       </c>
       <c r="D22">
-        <v>1.030357882048802</v>
+        <v>1.068728030464124</v>
       </c>
       <c r="E22">
-        <v>1.028730079190789</v>
+        <v>1.076639602994155</v>
       </c>
       <c r="F22">
-        <v>1.034294098329018</v>
+        <v>1.08227010406115</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049570072425723</v>
+        <v>1.052740899977054</v>
       </c>
       <c r="J22">
-        <v>1.039345278595806</v>
+        <v>1.070085727530385</v>
       </c>
       <c r="K22">
-        <v>1.045351014539556</v>
+        <v>1.072314944829871</v>
       </c>
       <c r="L22">
-        <v>1.043753093432489</v>
+        <v>1.080198206800657</v>
       </c>
       <c r="M22">
-        <v>1.049215478893149</v>
+        <v>1.085808837692054</v>
       </c>
       <c r="N22">
-        <v>1.015569204637731</v>
+        <v>1.026855785972227</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.011448819875117</v>
+        <v>1.063894670984894</v>
       </c>
       <c r="D23">
-        <v>1.032309113142548</v>
+        <v>1.069087282292577</v>
       </c>
       <c r="E23">
-        <v>1.030970935869424</v>
+        <v>1.077062729242114</v>
       </c>
       <c r="F23">
-        <v>1.036553772516184</v>
+        <v>1.082697636225056</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050472064590373</v>
+        <v>1.052877397182798</v>
       </c>
       <c r="J23">
-        <v>1.041047849734863</v>
+        <v>1.070396736442697</v>
       </c>
       <c r="K23">
-        <v>1.046967946585593</v>
+        <v>1.072607031318809</v>
       </c>
       <c r="L23">
-        <v>1.04565364322534</v>
+        <v>1.080554518645878</v>
       </c>
       <c r="M23">
-        <v>1.051137407381997</v>
+        <v>1.086169944545315</v>
       </c>
       <c r="N23">
-        <v>1.016170563805938</v>
+        <v>1.026963789151981</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.020841396747629</v>
+        <v>1.065623241270323</v>
       </c>
       <c r="D24">
-        <v>1.039789303010861</v>
+        <v>1.070501681852408</v>
       </c>
       <c r="E24">
-        <v>1.039564129106879</v>
+        <v>1.078729414013839</v>
       </c>
       <c r="F24">
-        <v>1.045220159802054</v>
+        <v>1.084381741741743</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053906744012562</v>
+        <v>1.053412163481724</v>
       </c>
       <c r="J24">
-        <v>1.047560123099053</v>
+        <v>1.071619992628274</v>
       </c>
       <c r="K24">
-        <v>1.05315193566518</v>
+        <v>1.07375560083939</v>
       </c>
       <c r="L24">
-        <v>1.052930338799282</v>
+        <v>1.081956837788884</v>
       </c>
       <c r="M24">
-        <v>1.058497116839871</v>
+        <v>1.087591218536433</v>
       </c>
       <c r="N24">
-        <v>1.018469883257786</v>
+        <v>1.027388147598317</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.031236378500238</v>
+        <v>1.067629410208684</v>
       </c>
       <c r="D25">
-        <v>1.04808850503105</v>
+        <v>1.072143151153373</v>
       </c>
       <c r="E25">
-        <v>1.049104868211491</v>
+        <v>1.080665351130733</v>
       </c>
       <c r="F25">
-        <v>1.054844109255226</v>
+        <v>1.086338049150253</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057669958990754</v>
+        <v>1.054027333897763</v>
       </c>
       <c r="J25">
-        <v>1.054756378749087</v>
+        <v>1.07303714142387</v>
       </c>
       <c r="K25">
-        <v>1.059983509698354</v>
+        <v>1.075085680022428</v>
       </c>
       <c r="L25">
-        <v>1.060985885237996</v>
+        <v>1.083583250028595</v>
       </c>
       <c r="M25">
-        <v>1.066646776755757</v>
+        <v>1.089239786004963</v>
       </c>
       <c r="N25">
-        <v>1.021008378736263</v>
+        <v>1.027878855080541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069229783573056</v>
+        <v>1.039165879685412</v>
       </c>
       <c r="D2">
-        <v>1.073452509572986</v>
+        <v>1.054432908182617</v>
       </c>
       <c r="E2">
-        <v>1.082210962593434</v>
+        <v>1.056404764397715</v>
       </c>
       <c r="F2">
-        <v>1.087900031501516</v>
+        <v>1.062209089417117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054513651681027</v>
+        <v>1.060508427636381</v>
       </c>
       <c r="J2">
-        <v>1.074165567252045</v>
+        <v>1.060235081642935</v>
       </c>
       <c r="K2">
-        <v>1.076144332288658</v>
+        <v>1.065182625159243</v>
       </c>
       <c r="L2">
-        <v>1.084879771175308</v>
+        <v>1.067130481497763</v>
       </c>
       <c r="M2">
-        <v>1.090554105452439</v>
+        <v>1.072864802500639</v>
       </c>
       <c r="N2">
-        <v>1.028268844460397</v>
+        <v>1.022938613725791</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.070391972735182</v>
+        <v>1.044733680657365</v>
       </c>
       <c r="D3">
-        <v>1.074403302909823</v>
+        <v>1.058894268106538</v>
       </c>
       <c r="E3">
-        <v>1.083334106665573</v>
+        <v>1.061542198325485</v>
       </c>
       <c r="F3">
-        <v>1.089035133506138</v>
+        <v>1.067393086884301</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054864250002646</v>
+        <v>1.062482056508607</v>
       </c>
       <c r="J3">
-        <v>1.074983822671005</v>
+        <v>1.064074937619195</v>
       </c>
       <c r="K3">
-        <v>1.076911733837148</v>
+        <v>1.068825213866394</v>
       </c>
       <c r="L3">
-        <v>1.08582076818021</v>
+        <v>1.071443835307453</v>
       </c>
       <c r="M3">
-        <v>1.091508098975943</v>
+        <v>1.077230595875685</v>
       </c>
       <c r="N3">
-        <v>1.028551202615609</v>
+        <v>1.024289823369363</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.071144077049202</v>
+        <v>1.04825457872187</v>
       </c>
       <c r="D4">
-        <v>1.075018571266204</v>
+        <v>1.061718125740503</v>
       </c>
       <c r="E4">
-        <v>1.084061274338114</v>
+        <v>1.06479606369393</v>
       </c>
       <c r="F4">
-        <v>1.089770071559804</v>
+        <v>1.070676777605677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055089950305015</v>
+        <v>1.063720862303595</v>
       </c>
       <c r="J4">
-        <v>1.075512792434533</v>
+        <v>1.066499592437612</v>
       </c>
       <c r="K4">
-        <v>1.077407708074269</v>
+        <v>1.071124639606283</v>
       </c>
       <c r="L4">
-        <v>1.086429479284547</v>
+        <v>1.074170636209504</v>
       </c>
       <c r="M4">
-        <v>1.092125253488765</v>
+        <v>1.079990945219486</v>
       </c>
       <c r="N4">
-        <v>1.028733533588351</v>
+        <v>1.025142201234513</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.071460284241375</v>
+        <v>1.049715993269368</v>
       </c>
       <c r="D5">
-        <v>1.075277240183781</v>
+        <v>1.062890797903793</v>
       </c>
       <c r="E5">
-        <v>1.084367076207081</v>
+        <v>1.066147827055148</v>
       </c>
       <c r="F5">
-        <v>1.090079147923228</v>
+        <v>1.072041009024091</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055184557097266</v>
+        <v>1.064232793760396</v>
       </c>
       <c r="J5">
-        <v>1.0757350529211</v>
+        <v>1.067505101587053</v>
       </c>
       <c r="K5">
-        <v>1.077616075669626</v>
+        <v>1.072078047866491</v>
       </c>
       <c r="L5">
-        <v>1.086685339489801</v>
+        <v>1.075302206744649</v>
       </c>
       <c r="M5">
-        <v>1.092384671365606</v>
+        <v>1.081136530862528</v>
       </c>
       <c r="N5">
-        <v>1.028810096072822</v>
+        <v>1.025495471831749</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.071513378169474</v>
+        <v>1.049960293459619</v>
       </c>
       <c r="D6">
-        <v>1.075320672430464</v>
+        <v>1.063086862286302</v>
       </c>
       <c r="E6">
-        <v>1.084418427596908</v>
+        <v>1.066373865716851</v>
       </c>
       <c r="F6">
-        <v>1.090131049573262</v>
+        <v>1.072269137059184</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055200425718993</v>
+        <v>1.064318237942528</v>
       </c>
       <c r="J6">
-        <v>1.075772364503068</v>
+        <v>1.06767313611092</v>
       </c>
       <c r="K6">
-        <v>1.077651053306001</v>
+        <v>1.072237365483596</v>
       </c>
       <c r="L6">
-        <v>1.086728297096312</v>
+        <v>1.075491352698954</v>
       </c>
       <c r="M6">
-        <v>1.092428226792839</v>
+        <v>1.081328024905573</v>
       </c>
       <c r="N6">
-        <v>1.02882294600487</v>
+        <v>1.025554495435257</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.071148302135423</v>
+        <v>1.048274178919528</v>
       </c>
       <c r="D7">
-        <v>1.075022027573035</v>
+        <v>1.061733851173372</v>
       </c>
       <c r="E7">
-        <v>1.084065360081903</v>
+        <v>1.064814188639851</v>
       </c>
       <c r="F7">
-        <v>1.089774201026829</v>
+        <v>1.070695069424412</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055091215536242</v>
+        <v>1.063727737198408</v>
       </c>
       <c r="J7">
-        <v>1.075515762754774</v>
+        <v>1.066513081687319</v>
       </c>
       <c r="K7">
-        <v>1.077410492841912</v>
+        <v>1.071137430580374</v>
       </c>
       <c r="L7">
-        <v>1.086432898265427</v>
+        <v>1.074185813603849</v>
       </c>
       <c r="M7">
-        <v>1.092128719975779</v>
+        <v>1.080006310228656</v>
       </c>
       <c r="N7">
-        <v>1.028734556971526</v>
+        <v>1.025146941334807</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.069622532728148</v>
+        <v>1.041065000631408</v>
       </c>
       <c r="D8">
-        <v>1.073773826143135</v>
+        <v>1.05595404448368</v>
       </c>
       <c r="E8">
-        <v>1.082590448022931</v>
+        <v>1.058155990077816</v>
       </c>
       <c r="F8">
-        <v>1.088283551363382</v>
+        <v>1.063976115916676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054632378355372</v>
+        <v>1.061183532682532</v>
       </c>
       <c r="J8">
-        <v>1.074442203480069</v>
+        <v>1.06154553892184</v>
       </c>
       <c r="K8">
-        <v>1.076403800717515</v>
+        <v>1.066425894266094</v>
       </c>
       <c r="L8">
-        <v>1.085197822385043</v>
+        <v>1.068601870664421</v>
       </c>
       <c r="M8">
-        <v>1.090876541883316</v>
+        <v>1.074353995192838</v>
       </c>
       <c r="N8">
-        <v>1.028364346080022</v>
+        <v>1.023399919926574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06693458067245</v>
+        <v>1.027695075619127</v>
       </c>
       <c r="D9">
-        <v>1.071574645521977</v>
+        <v>1.045258835692165</v>
       </c>
       <c r="E9">
-        <v>1.079994649240101</v>
+        <v>1.045850946494604</v>
       </c>
       <c r="F9">
-        <v>1.085660273262468</v>
+        <v>1.051561575249228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053814955447302</v>
+        <v>1.056392908316324</v>
       </c>
       <c r="J9">
-        <v>1.072546636691924</v>
+        <v>1.052306375881703</v>
       </c>
       <c r="K9">
-        <v>1.074625380257627</v>
+        <v>1.057657946026142</v>
       </c>
       <c r="L9">
-        <v>1.083020087816883</v>
+        <v>1.058241482460029</v>
       </c>
       <c r="M9">
-        <v>1.088668931039165</v>
+        <v>1.063870042762836</v>
       </c>
       <c r="N9">
-        <v>1.027709125724138</v>
+        <v>1.020144478026061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.06514298703034</v>
+        <v>1.018273764391706</v>
       </c>
       <c r="D10">
-        <v>1.07010871941003</v>
+        <v>1.03774263682639</v>
       </c>
       <c r="E10">
-        <v>1.078266227960562</v>
+        <v>1.03721245083126</v>
       </c>
       <c r="F10">
-        <v>1.083913703659388</v>
+        <v>1.042848287105381</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053264016473825</v>
+        <v>1.052970778958163</v>
       </c>
       <c r="J10">
-        <v>1.071280331144992</v>
+        <v>1.045780661287654</v>
       </c>
       <c r="K10">
-        <v>1.073436720128075</v>
+        <v>1.051462309723759</v>
       </c>
       <c r="L10">
-        <v>1.08156731336182</v>
+        <v>1.050940827603807</v>
       </c>
       <c r="M10">
-        <v>1.087196415501956</v>
+        <v>1.056484723989134</v>
       </c>
       <c r="N10">
-        <v>1.027270387363691</v>
+        <v>1.017841759902098</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.064367281491755</v>
+        <v>1.014058866993003</v>
       </c>
       <c r="D11">
-        <v>1.06947399930937</v>
+        <v>1.034385882140981</v>
       </c>
       <c r="E11">
-        <v>1.077518295650315</v>
+        <v>1.033356254584257</v>
       </c>
       <c r="F11">
-        <v>1.083157953866322</v>
+        <v>1.038959243936631</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053024030078302</v>
+        <v>1.051429421876982</v>
       </c>
       <c r="J11">
-        <v>1.070731384722</v>
+        <v>1.042858254738179</v>
       </c>
       <c r="K11">
-        <v>1.072921289232543</v>
+        <v>1.048687213999393</v>
       </c>
       <c r="L11">
-        <v>1.080938013228559</v>
+        <v>1.047675392705609</v>
       </c>
       <c r="M11">
-        <v>1.086558609453185</v>
+        <v>1.053182035581329</v>
       </c>
       <c r="N11">
-        <v>1.027079951729694</v>
+        <v>1.016809921980168</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.06407915853064</v>
+        <v>1.012471525785555</v>
       </c>
       <c r="D12">
-        <v>1.069238240900603</v>
+        <v>1.033122688918084</v>
       </c>
       <c r="E12">
-        <v>1.077240552473874</v>
+        <v>1.031905348724761</v>
       </c>
       <c r="F12">
-        <v>1.082877313094762</v>
+        <v>1.037496064874026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052934673862356</v>
+        <v>1.05084744255802</v>
       </c>
       <c r="J12">
-        <v>1.070527386583868</v>
+        <v>1.041757288735951</v>
       </c>
       <c r="K12">
-        <v>1.072729724535431</v>
+        <v>1.047641681529472</v>
       </c>
       <c r="L12">
-        <v>1.080704226490004</v>
+        <v>1.046445798261814</v>
       </c>
       <c r="M12">
-        <v>1.086321669592536</v>
+        <v>1.051938509826006</v>
       </c>
       <c r="N12">
-        <v>1.027009146401827</v>
+        <v>1.01642111922886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.064140961515721</v>
+        <v>1.012813023468354</v>
       </c>
       <c r="D13">
-        <v>1.069288811665158</v>
+        <v>1.033394404666702</v>
       </c>
       <c r="E13">
-        <v>1.077300126073659</v>
+        <v>1.032217431869277</v>
       </c>
       <c r="F13">
-        <v>1.082937507959072</v>
+        <v>1.037810783988768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052953850789391</v>
+        <v>1.050972715325058</v>
       </c>
       <c r="J13">
-        <v>1.070571149186613</v>
+        <v>1.0419941646898</v>
       </c>
       <c r="K13">
-        <v>1.072770820832152</v>
+        <v>1.047866633441202</v>
       </c>
       <c r="L13">
-        <v>1.080754376208911</v>
+        <v>1.046710321839146</v>
       </c>
       <c r="M13">
-        <v>1.086372495378869</v>
+        <v>1.052206026032396</v>
       </c>
       <c r="N13">
-        <v>1.027024337511317</v>
+        <v>1.016504774390575</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.064343464989988</v>
+        <v>1.013928108894936</v>
       </c>
       <c r="D14">
-        <v>1.069454511348439</v>
+        <v>1.03428180566817</v>
       </c>
       <c r="E14">
-        <v>1.077495335844526</v>
+        <v>1.033236707614367</v>
       </c>
       <c r="F14">
-        <v>1.083134754418473</v>
+        <v>1.038838683954898</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053016648244867</v>
+        <v>1.051381511142193</v>
       </c>
       <c r="J14">
-        <v>1.070714524114059</v>
+        <v>1.042767569417201</v>
       </c>
       <c r="K14">
-        <v>1.072905456696642</v>
+        <v>1.048601095882538</v>
       </c>
       <c r="L14">
-        <v>1.080918689095568</v>
+        <v>1.047574100195441</v>
       </c>
       <c r="M14">
-        <v>1.086539024552364</v>
+        <v>1.053079593443067</v>
       </c>
       <c r="N14">
-        <v>1.027074100348415</v>
+        <v>1.0167778981791</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064468235165037</v>
+        <v>1.014612225095807</v>
       </c>
       <c r="D15">
-        <v>1.069556605027664</v>
+        <v>1.034826365719172</v>
       </c>
       <c r="E15">
-        <v>1.077615620569715</v>
+        <v>1.03386222339013</v>
       </c>
       <c r="F15">
-        <v>1.083256294832564</v>
+        <v>1.039469503711231</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053055311386006</v>
+        <v>1.051632115632247</v>
       </c>
       <c r="J15">
-        <v>1.070802849530775</v>
+        <v>1.043242012856816</v>
       </c>
       <c r="K15">
-        <v>1.072988395609159</v>
+        <v>1.049051642329556</v>
       </c>
       <c r="L15">
-        <v>1.081019922810384</v>
+        <v>1.048104062344722</v>
       </c>
       <c r="M15">
-        <v>1.086641624637407</v>
+        <v>1.053615574396262</v>
       </c>
       <c r="N15">
-        <v>1.027104751721665</v>
+        <v>1.01694543589757</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.065194469334333</v>
+        <v>1.018550523884283</v>
       </c>
       <c r="D16">
-        <v>1.070150844404103</v>
+        <v>1.037963177765367</v>
       </c>
       <c r="E16">
-        <v>1.078315875929231</v>
+        <v>1.037465839673661</v>
       </c>
       <c r="F16">
-        <v>1.08396387131186</v>
+        <v>1.043103845909031</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05327991350551</v>
+        <v>1.053071777041195</v>
       </c>
       <c r="J16">
-        <v>1.071316749626802</v>
+        <v>1.045972496941898</v>
       </c>
       <c r="K16">
-        <v>1.073470912083626</v>
+        <v>1.051644465970127</v>
       </c>
       <c r="L16">
-        <v>1.081609072838556</v>
+        <v>1.051155263975285</v>
       </c>
       <c r="M16">
-        <v>1.087238740377759</v>
+        <v>1.056701619867416</v>
       </c>
       <c r="N16">
-        <v>1.027283016270623</v>
+        <v>1.017909481504376</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.065650033646336</v>
+        <v>1.020983713692808</v>
       </c>
       <c r="D17">
-        <v>1.070523604275136</v>
+        <v>1.039902783359223</v>
       </c>
       <c r="E17">
-        <v>1.078755257066142</v>
+        <v>1.03969453322122</v>
       </c>
       <c r="F17">
-        <v>1.084407855752632</v>
+        <v>1.0453516873549</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05342041842821</v>
+        <v>1.053958552524841</v>
       </c>
       <c r="J17">
-        <v>1.071638937029248</v>
+        <v>1.047658734185588</v>
       </c>
       <c r="K17">
-        <v>1.073773385225288</v>
+        <v>1.053245564984862</v>
       </c>
       <c r="L17">
-        <v>1.081978566541368</v>
+        <v>1.05304061692645</v>
       </c>
       <c r="M17">
-        <v>1.087613242053484</v>
+        <v>1.058608667416756</v>
       </c>
       <c r="N17">
-        <v>1.027394713953904</v>
+        <v>1.018504687391003</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065915763092526</v>
+        <v>1.022389987934057</v>
       </c>
       <c r="D18">
-        <v>1.070741032264298</v>
+        <v>1.041024333865985</v>
       </c>
       <c r="E18">
-        <v>1.079011587544981</v>
+        <v>1.040983415698085</v>
       </c>
       <c r="F18">
-        <v>1.084666875201409</v>
+        <v>1.046651694182553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053502234987407</v>
+        <v>1.054470083937013</v>
       </c>
       <c r="J18">
-        <v>1.071826802965498</v>
+        <v>1.048633021203432</v>
       </c>
       <c r="K18">
-        <v>1.073949741983957</v>
+        <v>1.054170611263103</v>
       </c>
       <c r="L18">
-        <v>1.082194062934518</v>
+        <v>1.054130330055135</v>
       </c>
       <c r="M18">
-        <v>1.087831663572986</v>
+        <v>1.0597109776938</v>
       </c>
       <c r="N18">
-        <v>1.027459821039273</v>
+        <v>1.018848530901275</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.066006371108652</v>
+        <v>1.022867332605067</v>
       </c>
       <c r="D19">
-        <v>1.070815170190755</v>
+        <v>1.041405122048347</v>
       </c>
       <c r="E19">
-        <v>1.079098997591398</v>
+        <v>1.041421046261044</v>
       </c>
       <c r="F19">
-        <v>1.084755202784666</v>
+        <v>1.04709311044109</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053530108992562</v>
+        <v>1.05464354905642</v>
       </c>
       <c r="J19">
-        <v>1.071890850149547</v>
+        <v>1.048963682823129</v>
       </c>
       <c r="K19">
-        <v>1.074009863104901</v>
+        <v>1.054484552478202</v>
       </c>
       <c r="L19">
-        <v>1.082267537750613</v>
+        <v>1.054500230366556</v>
       </c>
       <c r="M19">
-        <v>1.087906136469447</v>
+        <v>1.060085163782694</v>
       </c>
       <c r="N19">
-        <v>1.027482013364354</v>
+        <v>1.018965216867633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.065601155245287</v>
+        <v>1.020724006109385</v>
       </c>
       <c r="D20">
-        <v>1.07048361031364</v>
+        <v>1.039695701418869</v>
       </c>
       <c r="E20">
-        <v>1.0787081107831</v>
+        <v>1.039456569316456</v>
       </c>
       <c r="F20">
-        <v>1.084360215170853</v>
+        <v>1.045111673665525</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053405357813002</v>
+        <v>1.053864003993385</v>
       </c>
       <c r="J20">
-        <v>1.071604375635233</v>
+        <v>1.047478781787507</v>
       </c>
       <c r="K20">
-        <v>1.073740940037248</v>
+        <v>1.053074703384093</v>
       </c>
       <c r="L20">
-        <v>1.081938925751239</v>
+        <v>1.052839375846728</v>
       </c>
       <c r="M20">
-        <v>1.08757306353506</v>
+        <v>1.058405104633995</v>
       </c>
       <c r="N20">
-        <v>1.027382734430642</v>
+        <v>1.018441174041056</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.064283832537129</v>
+        <v>1.013600356021501</v>
       </c>
       <c r="D21">
-        <v>1.069405716790071</v>
+        <v>1.034020947790592</v>
       </c>
       <c r="E21">
-        <v>1.07743784944589</v>
+        <v>1.032937078046488</v>
       </c>
       <c r="F21">
-        <v>1.083076668095396</v>
+        <v>1.038536516792524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052998161885485</v>
+        <v>1.051261396111147</v>
       </c>
       <c r="J21">
-        <v>1.070672306399231</v>
+        <v>1.042540255414606</v>
       </c>
       <c r="K21">
-        <v>1.072865812850937</v>
+        <v>1.048385229170725</v>
       </c>
       <c r="L21">
-        <v>1.080870304063251</v>
+        <v>1.04732020763795</v>
       </c>
       <c r="M21">
-        <v>1.086489986703195</v>
+        <v>1.052822820877184</v>
       </c>
       <c r="N21">
-        <v>1.027059448340159</v>
+        <v>1.016697625388832</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.063455628638114</v>
+        <v>1.008994864619317</v>
       </c>
       <c r="D22">
-        <v>1.068728030464124</v>
+        <v>1.030357882048803</v>
       </c>
       <c r="E22">
-        <v>1.076639602994155</v>
+        <v>1.02873007919079</v>
       </c>
       <c r="F22">
-        <v>1.08227010406115</v>
+        <v>1.034294098329019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052740899977054</v>
+        <v>1.049570072425723</v>
       </c>
       <c r="J22">
-        <v>1.070085727530385</v>
+        <v>1.039345278595807</v>
       </c>
       <c r="K22">
-        <v>1.072314944829871</v>
+        <v>1.045351014539557</v>
       </c>
       <c r="L22">
-        <v>1.080198206800657</v>
+        <v>1.04375309343249</v>
       </c>
       <c r="M22">
-        <v>1.085808837692054</v>
+        <v>1.04921547889315</v>
       </c>
       <c r="N22">
-        <v>1.026855785972227</v>
+        <v>1.015569204637732</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063894670984894</v>
+        <v>1.011448819875118</v>
       </c>
       <c r="D23">
-        <v>1.069087282292577</v>
+        <v>1.032309113142548</v>
       </c>
       <c r="E23">
-        <v>1.077062729242114</v>
+        <v>1.030970935869425</v>
       </c>
       <c r="F23">
-        <v>1.082697636225056</v>
+        <v>1.036553772516184</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052877397182798</v>
+        <v>1.050472064590373</v>
       </c>
       <c r="J23">
-        <v>1.070396736442697</v>
+        <v>1.041047849734863</v>
       </c>
       <c r="K23">
-        <v>1.072607031318809</v>
+        <v>1.046967946585593</v>
       </c>
       <c r="L23">
-        <v>1.080554518645878</v>
+        <v>1.04565364322534</v>
       </c>
       <c r="M23">
-        <v>1.086169944545315</v>
+        <v>1.051137407381998</v>
       </c>
       <c r="N23">
-        <v>1.026963789151981</v>
+        <v>1.016170563805938</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065623241270323</v>
+        <v>1.02084139674763</v>
       </c>
       <c r="D24">
-        <v>1.070501681852408</v>
+        <v>1.039789303010862</v>
       </c>
       <c r="E24">
-        <v>1.078729414013839</v>
+        <v>1.039564129106881</v>
       </c>
       <c r="F24">
-        <v>1.084381741741743</v>
+        <v>1.045220159802055</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053412163481724</v>
+        <v>1.053906744012562</v>
       </c>
       <c r="J24">
-        <v>1.071619992628274</v>
+        <v>1.047560123099055</v>
       </c>
       <c r="K24">
-        <v>1.07375560083939</v>
+        <v>1.053151935665182</v>
       </c>
       <c r="L24">
-        <v>1.081956837788884</v>
+        <v>1.052930338799283</v>
       </c>
       <c r="M24">
-        <v>1.087591218536433</v>
+        <v>1.058497116839873</v>
       </c>
       <c r="N24">
-        <v>1.027388147598317</v>
+        <v>1.018469883257787</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067629410208684</v>
+        <v>1.03123637850024</v>
       </c>
       <c r="D25">
-        <v>1.072143151153373</v>
+        <v>1.048088505031052</v>
       </c>
       <c r="E25">
-        <v>1.080665351130733</v>
+        <v>1.049104868211493</v>
       </c>
       <c r="F25">
-        <v>1.086338049150253</v>
+        <v>1.054844109255228</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054027333897763</v>
+        <v>1.057669958990755</v>
       </c>
       <c r="J25">
-        <v>1.07303714142387</v>
+        <v>1.054756378749089</v>
       </c>
       <c r="K25">
-        <v>1.075085680022428</v>
+        <v>1.059983509698356</v>
       </c>
       <c r="L25">
-        <v>1.083583250028595</v>
+        <v>1.060985885237998</v>
       </c>
       <c r="M25">
-        <v>1.089239786004963</v>
+        <v>1.066646776755759</v>
       </c>
       <c r="N25">
-        <v>1.027878855080541</v>
+        <v>1.021008378736264</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039165879685412</v>
+        <v>1.014798336147131</v>
       </c>
       <c r="D2">
-        <v>1.054432908182617</v>
+        <v>1.031420316196122</v>
       </c>
       <c r="E2">
-        <v>1.056404764397715</v>
+        <v>1.032582686309339</v>
       </c>
       <c r="F2">
-        <v>1.062209089417117</v>
+        <v>1.039599879769082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060508427636381</v>
+        <v>1.053954773678536</v>
       </c>
       <c r="J2">
-        <v>1.060235081642935</v>
+        <v>1.036545264219509</v>
       </c>
       <c r="K2">
-        <v>1.065182625159243</v>
+        <v>1.04245860595284</v>
       </c>
       <c r="L2">
-        <v>1.067130481497763</v>
+        <v>1.043606014624843</v>
       </c>
       <c r="M2">
-        <v>1.072864802500639</v>
+        <v>1.050533773354283</v>
       </c>
       <c r="N2">
-        <v>1.022938613725791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015036541753589</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048566438043184</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041092194670933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044733680657365</v>
+        <v>1.019786292839889</v>
       </c>
       <c r="D3">
-        <v>1.058894268106538</v>
+        <v>1.034773863892284</v>
       </c>
       <c r="E3">
-        <v>1.061542198325485</v>
+        <v>1.036862585000189</v>
       </c>
       <c r="F3">
-        <v>1.067393086884301</v>
+        <v>1.043392032833058</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062482056508607</v>
+        <v>1.055257111584364</v>
       </c>
       <c r="J3">
-        <v>1.064074937619195</v>
+        <v>1.039751721102682</v>
       </c>
       <c r="K3">
-        <v>1.068825213866394</v>
+        <v>1.044980330444852</v>
       </c>
       <c r="L3">
-        <v>1.071443835307453</v>
+        <v>1.047044565674534</v>
       </c>
       <c r="M3">
-        <v>1.077230595875685</v>
+        <v>1.05349825033686</v>
       </c>
       <c r="N3">
-        <v>1.024289823369363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016212854261688</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05091259323984</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042872609049621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04825457872187</v>
+        <v>1.022944066341964</v>
       </c>
       <c r="D4">
-        <v>1.061718125740503</v>
+        <v>1.036898859239977</v>
       </c>
       <c r="E4">
-        <v>1.06479606369393</v>
+        <v>1.039578039378967</v>
       </c>
       <c r="F4">
-        <v>1.070676777605677</v>
+        <v>1.045799994126789</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063720862303595</v>
+        <v>1.056068041305974</v>
       </c>
       <c r="J4">
-        <v>1.066499592437612</v>
+        <v>1.04177852887511</v>
       </c>
       <c r="K4">
-        <v>1.071124639606283</v>
+        <v>1.046571445606546</v>
       </c>
       <c r="L4">
-        <v>1.074170636209504</v>
+        <v>1.04922115279167</v>
       </c>
       <c r="M4">
-        <v>1.079990945219486</v>
+        <v>1.0553753759571</v>
       </c>
       <c r="N4">
-        <v>1.025142201234513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016955564300921</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052398189778564</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043998547370003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049715993269368</v>
+        <v>1.024261317400481</v>
       </c>
       <c r="D5">
-        <v>1.062890797903793</v>
+        <v>1.037787861191086</v>
       </c>
       <c r="E5">
-        <v>1.066147827055148</v>
+        <v>1.040712380888206</v>
       </c>
       <c r="F5">
-        <v>1.072041009024091</v>
+        <v>1.046805653938693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064232793760396</v>
+        <v>1.056404632023293</v>
       </c>
       <c r="J5">
-        <v>1.067505101587053</v>
+        <v>1.042625149458924</v>
       </c>
       <c r="K5">
-        <v>1.072078047866491</v>
+        <v>1.047236928682573</v>
       </c>
       <c r="L5">
-        <v>1.075302206744649</v>
+        <v>1.050130150698802</v>
       </c>
       <c r="M5">
-        <v>1.081136530862528</v>
+        <v>1.056158901517133</v>
       </c>
       <c r="N5">
-        <v>1.025495471831749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017267420050655</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053018287451935</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044476223712087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049960293459619</v>
+        <v>1.024488616811344</v>
       </c>
       <c r="D6">
-        <v>1.063086862286302</v>
+        <v>1.037943915152472</v>
       </c>
       <c r="E6">
-        <v>1.066373865716851</v>
+        <v>1.040908463573604</v>
       </c>
       <c r="F6">
-        <v>1.072269137059184</v>
+        <v>1.046978684092543</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064318237942528</v>
+        <v>1.056464499153613</v>
       </c>
       <c r="J6">
-        <v>1.06767313611092</v>
+        <v>1.042773549049497</v>
       </c>
       <c r="K6">
-        <v>1.072237365483596</v>
+        <v>1.047355430686536</v>
       </c>
       <c r="L6">
-        <v>1.075491352698954</v>
+        <v>1.050288401522762</v>
       </c>
       <c r="M6">
-        <v>1.081328024905573</v>
+        <v>1.056294645549821</v>
       </c>
       <c r="N6">
-        <v>1.025554495435257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017324296204351</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05312571792072</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044568705066069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048274178919528</v>
+        <v>1.022980815095576</v>
       </c>
       <c r="D7">
-        <v>1.061733851173372</v>
+        <v>1.036930696554533</v>
       </c>
       <c r="E7">
-        <v>1.064814188639851</v>
+        <v>1.039610391189973</v>
       </c>
       <c r="F7">
-        <v>1.070695069424412</v>
+        <v>1.045826413039245</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063727737198408</v>
+        <v>1.056082764340062</v>
       </c>
       <c r="J7">
-        <v>1.066513081687319</v>
+        <v>1.041808510762604</v>
       </c>
       <c r="K7">
-        <v>1.071137430580374</v>
+        <v>1.046600072687326</v>
       </c>
       <c r="L7">
-        <v>1.074185813603849</v>
+        <v>1.04925030075492</v>
       </c>
       <c r="M7">
-        <v>1.080006310228656</v>
+        <v>1.055398682773842</v>
       </c>
       <c r="N7">
-        <v>1.025146941334807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016972697595331</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05241663526311</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044038786019266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041065000631408</v>
+        <v>1.016523250044595</v>
       </c>
       <c r="D8">
-        <v>1.05595404448368</v>
+        <v>1.03258829515929</v>
       </c>
       <c r="E8">
-        <v>1.058155990077816</v>
+        <v>1.03406241317714</v>
       </c>
       <c r="F8">
-        <v>1.063976115916676</v>
+        <v>1.040907664783778</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061183532682532</v>
+        <v>1.05441442666446</v>
       </c>
       <c r="J8">
-        <v>1.06154553892184</v>
+        <v>1.037662768916861</v>
       </c>
       <c r="K8">
-        <v>1.066425894266094</v>
+        <v>1.043344214567889</v>
       </c>
       <c r="L8">
-        <v>1.068601870664421</v>
+        <v>1.044799938354315</v>
       </c>
       <c r="M8">
-        <v>1.074353995192838</v>
+        <v>1.051560623198532</v>
       </c>
       <c r="N8">
-        <v>1.023399919926574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015454773643867</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049379111439471</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041741207153151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027695075619127</v>
+        <v>1.004548004031527</v>
       </c>
       <c r="D9">
-        <v>1.045258835692165</v>
+        <v>1.024542856329947</v>
       </c>
       <c r="E9">
-        <v>1.045850946494604</v>
+        <v>1.023822543011197</v>
       </c>
       <c r="F9">
-        <v>1.051561575249228</v>
+        <v>1.031849387499038</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056392908316324</v>
+        <v>1.05120643101769</v>
       </c>
       <c r="J9">
-        <v>1.052306375881703</v>
+        <v>1.02994117647179</v>
       </c>
       <c r="K9">
-        <v>1.057657946026142</v>
+        <v>1.037249908347111</v>
       </c>
       <c r="L9">
-        <v>1.058241482460029</v>
+        <v>1.036540588315313</v>
       </c>
       <c r="M9">
-        <v>1.063870042762836</v>
+        <v>1.044446032487081</v>
       </c>
       <c r="N9">
-        <v>1.020144478026061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012610782572872</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043748436724518</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037428967097309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018273764391706</v>
+        <v>0.9962856893286225</v>
       </c>
       <c r="D10">
-        <v>1.03774263682639</v>
+        <v>1.019020994846399</v>
       </c>
       <c r="E10">
-        <v>1.03721245083126</v>
+        <v>1.016833694782247</v>
       </c>
       <c r="F10">
-        <v>1.042848287105381</v>
+        <v>1.025722051250646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052970778958163</v>
+        <v>1.048950773189476</v>
       </c>
       <c r="J10">
-        <v>1.045780661287654</v>
+        <v>1.024647453456148</v>
       </c>
       <c r="K10">
-        <v>1.051462309723759</v>
+        <v>1.033055107017842</v>
       </c>
       <c r="L10">
-        <v>1.050940827603807</v>
+        <v>1.030905520930367</v>
       </c>
       <c r="M10">
-        <v>1.056484723989134</v>
+        <v>1.03964191402684</v>
       </c>
       <c r="N10">
-        <v>1.017841759902098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010690259755827</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039997649875339</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03447978255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014058866993003</v>
+        <v>0.9937615650038822</v>
       </c>
       <c r="D11">
-        <v>1.034385882140981</v>
+        <v>1.017425103087256</v>
       </c>
       <c r="E11">
-        <v>1.033356254584257</v>
+        <v>1.015023486232338</v>
       </c>
       <c r="F11">
-        <v>1.038959243936631</v>
+        <v>1.024487577395407</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051429421876982</v>
+        <v>1.048439068958513</v>
       </c>
       <c r="J11">
-        <v>1.042858254738179</v>
+        <v>1.023396192959777</v>
       </c>
       <c r="K11">
-        <v>1.048687213999393</v>
+        <v>1.032025722766913</v>
       </c>
       <c r="L11">
-        <v>1.047675392705609</v>
+        <v>1.029667536104321</v>
       </c>
       <c r="M11">
-        <v>1.053182035581329</v>
+        <v>1.038962011626735</v>
       </c>
       <c r="N11">
-        <v>1.016809921980168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010499885845782</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039895081075625</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033784850924272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012471525785555</v>
+        <v>0.9932340678935662</v>
       </c>
       <c r="D12">
-        <v>1.033122688918084</v>
+        <v>1.017131176181325</v>
       </c>
       <c r="E12">
-        <v>1.031905348724761</v>
+        <v>1.01481109357829</v>
       </c>
       <c r="F12">
-        <v>1.037496064874026</v>
+        <v>1.024561578214381</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05084744255802</v>
+        <v>1.048426381752646</v>
       </c>
       <c r="J12">
-        <v>1.041757288735951</v>
+        <v>1.023327560282018</v>
       </c>
       <c r="K12">
-        <v>1.047641681529472</v>
+        <v>1.031937368373514</v>
       </c>
       <c r="L12">
-        <v>1.046445798261814</v>
+        <v>1.029659933138058</v>
       </c>
       <c r="M12">
-        <v>1.051938509826006</v>
+        <v>1.039232875099272</v>
       </c>
       <c r="N12">
-        <v>1.01642111922886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010677746110027</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040435160157369</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033722381327021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012813023468354</v>
+        <v>0.9942351984025333</v>
       </c>
       <c r="D13">
-        <v>1.033394404666702</v>
+        <v>1.017845417917964</v>
       </c>
       <c r="E13">
-        <v>1.032217431869277</v>
+        <v>1.015840141156674</v>
       </c>
       <c r="F13">
-        <v>1.037810783988768</v>
+        <v>1.025677036768826</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050972715325058</v>
+        <v>1.04881593585332</v>
       </c>
       <c r="J13">
-        <v>1.0419941646898</v>
+        <v>1.024192033206906</v>
       </c>
       <c r="K13">
-        <v>1.047866633441202</v>
+        <v>1.032595618076742</v>
       </c>
       <c r="L13">
-        <v>1.046710321839146</v>
+        <v>1.030626996689587</v>
       </c>
       <c r="M13">
-        <v>1.052206026032396</v>
+        <v>1.040285862046457</v>
       </c>
       <c r="N13">
-        <v>1.016504774390575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011168169060905</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041543880376869</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034185290830605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013928108894936</v>
+        <v>0.9956212588447457</v>
       </c>
       <c r="D14">
-        <v>1.03428180566817</v>
+        <v>1.018798098078771</v>
       </c>
       <c r="E14">
-        <v>1.033236707614367</v>
+        <v>1.017115016531367</v>
       </c>
       <c r="F14">
-        <v>1.038838683954898</v>
+        <v>1.026922633327471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051381511142193</v>
+        <v>1.049268050838906</v>
       </c>
       <c r="J14">
-        <v>1.042767569417201</v>
+        <v>1.0252132561791</v>
       </c>
       <c r="K14">
-        <v>1.048601095882538</v>
+        <v>1.033390524289813</v>
       </c>
       <c r="L14">
-        <v>1.047574100195441</v>
+        <v>1.031737784190311</v>
       </c>
       <c r="M14">
-        <v>1.053079593443067</v>
+        <v>1.041370409428515</v>
       </c>
       <c r="N14">
-        <v>1.0167778981791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01164975950456</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042574167355611</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034748742808873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014612225095807</v>
+        <v>0.9963039539549702</v>
       </c>
       <c r="D15">
-        <v>1.034826365719172</v>
+        <v>1.019261145266847</v>
       </c>
       <c r="E15">
-        <v>1.03386222339013</v>
+        <v>1.017712419040457</v>
       </c>
       <c r="F15">
-        <v>1.039469503711231</v>
+        <v>1.027473759099943</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051632115632247</v>
+        <v>1.049472614227795</v>
       </c>
       <c r="J15">
-        <v>1.043242012856816</v>
+        <v>1.025679280243148</v>
       </c>
       <c r="K15">
-        <v>1.049051642329556</v>
+        <v>1.033758779141791</v>
       </c>
       <c r="L15">
-        <v>1.048104062344722</v>
+        <v>1.032237744152264</v>
       </c>
       <c r="M15">
-        <v>1.053615574396262</v>
+        <v>1.041826358289647</v>
       </c>
       <c r="N15">
-        <v>1.01694543589757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01184309625881</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042972009927264</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035014985170814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018550523884283</v>
+        <v>0.99961373731585</v>
       </c>
       <c r="D16">
-        <v>1.037963177765367</v>
+        <v>1.021465484255379</v>
       </c>
       <c r="E16">
-        <v>1.037465839673661</v>
+        <v>1.020482352209363</v>
       </c>
       <c r="F16">
-        <v>1.043103845909031</v>
+        <v>1.029886639976002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053071777041195</v>
+        <v>1.050372749894513</v>
       </c>
       <c r="J16">
-        <v>1.045972496941898</v>
+        <v>1.027765854429142</v>
       </c>
       <c r="K16">
-        <v>1.051644465970127</v>
+        <v>1.035422122302531</v>
       </c>
       <c r="L16">
-        <v>1.051155263975285</v>
+        <v>1.034455762020694</v>
       </c>
       <c r="M16">
-        <v>1.056701619867416</v>
+        <v>1.043701307224092</v>
       </c>
       <c r="N16">
-        <v>1.017909481504376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012563925514655</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044415352324789</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036194188378044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020983713692808</v>
+        <v>1.001430111311998</v>
       </c>
       <c r="D17">
-        <v>1.039902783359223</v>
+        <v>1.022660909279111</v>
       </c>
       <c r="E17">
-        <v>1.03969453322122</v>
+        <v>1.021942347228413</v>
       </c>
       <c r="F17">
-        <v>1.0453516873549</v>
+        <v>1.031082323639375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053958552524841</v>
+        <v>1.050824314513992</v>
       </c>
       <c r="J17">
-        <v>1.047658734185588</v>
+        <v>1.028833443165896</v>
       </c>
       <c r="K17">
-        <v>1.053245564984862</v>
+        <v>1.036282943927633</v>
       </c>
       <c r="L17">
-        <v>1.05304061692645</v>
+        <v>1.035576283160448</v>
       </c>
       <c r="M17">
-        <v>1.058608667416756</v>
+        <v>1.044566465111866</v>
       </c>
       <c r="N17">
-        <v>1.018504687391003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012866315543001</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044970553067633</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036805402702325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022389987934057</v>
+        <v>1.002094960871363</v>
       </c>
       <c r="D18">
-        <v>1.041024333865985</v>
+        <v>1.023065341921716</v>
       </c>
       <c r="E18">
-        <v>1.040983415698085</v>
+        <v>1.022358020133208</v>
       </c>
       <c r="F18">
-        <v>1.046651694182553</v>
+        <v>1.031274400109643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054470083937013</v>
+        <v>1.050913406432665</v>
       </c>
       <c r="J18">
-        <v>1.048633021203432</v>
+        <v>1.029079056068313</v>
       </c>
       <c r="K18">
-        <v>1.054170611263103</v>
+        <v>1.036497470364526</v>
       </c>
       <c r="L18">
-        <v>1.054130330055135</v>
+        <v>1.035801671036483</v>
       </c>
       <c r="M18">
-        <v>1.0597109776938</v>
+        <v>1.044574282759398</v>
       </c>
       <c r="N18">
-        <v>1.018848530901275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012809164164743</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044739866888893</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036945452193501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022867332605067</v>
+        <v>1.001737063078747</v>
       </c>
       <c r="D19">
-        <v>1.041405122048347</v>
+        <v>1.022775491134075</v>
       </c>
       <c r="E19">
-        <v>1.041421046261044</v>
+        <v>1.021838533369368</v>
       </c>
       <c r="F19">
-        <v>1.04709311044109</v>
+        <v>1.030561082784952</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05464354905642</v>
+        <v>1.050687483864641</v>
       </c>
       <c r="J19">
-        <v>1.048963682823129</v>
+        <v>1.028600362023245</v>
       </c>
       <c r="K19">
-        <v>1.054484552478202</v>
+        <v>1.036149839143168</v>
       </c>
       <c r="L19">
-        <v>1.054500230366556</v>
+        <v>1.035228078698091</v>
       </c>
       <c r="M19">
-        <v>1.060085163782694</v>
+        <v>1.043810519017725</v>
       </c>
       <c r="N19">
-        <v>1.018965216867633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012450121598174</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043811647736987</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036706057667309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020724006109385</v>
+        <v>0.9984907889568142</v>
       </c>
       <c r="D20">
-        <v>1.039695701418869</v>
+        <v>1.020511108492546</v>
       </c>
       <c r="E20">
-        <v>1.039456569316456</v>
+        <v>1.01870037250939</v>
       </c>
       <c r="F20">
-        <v>1.045111673665525</v>
+        <v>1.027354126498454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053864003993385</v>
+        <v>1.049571045209731</v>
       </c>
       <c r="J20">
-        <v>1.047478781787507</v>
+        <v>1.026080012379295</v>
       </c>
       <c r="K20">
-        <v>1.053074703384093</v>
+        <v>1.034202634578638</v>
       </c>
       <c r="L20">
-        <v>1.052839375846728</v>
+        <v>1.032422179755941</v>
       </c>
       <c r="M20">
-        <v>1.058405104633995</v>
+        <v>1.040932455442038</v>
       </c>
       <c r="N20">
-        <v>1.018441174041056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011230505785449</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041008445945931</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035333243741928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013600356021501</v>
+        <v>0.9920292478405813</v>
       </c>
       <c r="D21">
-        <v>1.034020947790592</v>
+        <v>1.016180587008313</v>
       </c>
       <c r="E21">
-        <v>1.032937078046488</v>
+        <v>1.013186826181016</v>
       </c>
       <c r="F21">
-        <v>1.038536516792524</v>
+        <v>1.022456905068685</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051261396111147</v>
+        <v>1.047745899733257</v>
       </c>
       <c r="J21">
-        <v>1.042540255414606</v>
+        <v>1.021864044823922</v>
       </c>
       <c r="K21">
-        <v>1.048385229170725</v>
+        <v>1.030861763264136</v>
       </c>
       <c r="L21">
-        <v>1.04732020763795</v>
+        <v>1.027922603942923</v>
       </c>
       <c r="M21">
-        <v>1.052822820877184</v>
+        <v>1.037024958870104</v>
       </c>
       <c r="N21">
-        <v>1.016697625388832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009649686151262</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037875157021798</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032974370720089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008994864619317</v>
+        <v>0.9879088118650701</v>
       </c>
       <c r="D22">
-        <v>1.030357882048803</v>
+        <v>1.013422429905687</v>
       </c>
       <c r="E22">
-        <v>1.02873007919079</v>
+        <v>1.009698854738935</v>
       </c>
       <c r="F22">
-        <v>1.034294098329019</v>
+        <v>1.019386475334363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049570072425723</v>
+        <v>1.046575446319158</v>
       </c>
       <c r="J22">
-        <v>1.039345278595807</v>
+        <v>1.019189028064301</v>
       </c>
       <c r="K22">
-        <v>1.045351014539557</v>
+        <v>1.028732594342343</v>
       </c>
       <c r="L22">
-        <v>1.04375309343249</v>
+        <v>1.02508059325084</v>
       </c>
       <c r="M22">
-        <v>1.04921547889315</v>
+        <v>1.034583422903023</v>
       </c>
       <c r="N22">
-        <v>1.015569204637732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008652837373514</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035942835312434</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031455415830139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011448819875118</v>
+        <v>0.9900836289640323</v>
       </c>
       <c r="D23">
-        <v>1.032309113142548</v>
+        <v>1.014871479534628</v>
       </c>
       <c r="E23">
-        <v>1.030970935869425</v>
+        <v>1.011538098668293</v>
       </c>
       <c r="F23">
-        <v>1.036553772516184</v>
+        <v>1.02100751318737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050472064590373</v>
+        <v>1.047190127134322</v>
       </c>
       <c r="J23">
-        <v>1.041047849734863</v>
+        <v>1.02059497147311</v>
       </c>
       <c r="K23">
-        <v>1.046967946585593</v>
+        <v>1.029847850083133</v>
       </c>
       <c r="L23">
-        <v>1.04565364322534</v>
+        <v>1.026576797488693</v>
       </c>
       <c r="M23">
-        <v>1.051137407381998</v>
+        <v>1.03587053661242</v>
       </c>
       <c r="N23">
-        <v>1.016170563805938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009169683192252</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036961505278231</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032234285893213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02084139674763</v>
+        <v>0.9984561137023306</v>
       </c>
       <c r="D24">
-        <v>1.039789303010862</v>
+        <v>1.020470348995115</v>
       </c>
       <c r="E24">
-        <v>1.039564129106881</v>
+        <v>1.018638707851075</v>
       </c>
       <c r="F24">
-        <v>1.045220159802055</v>
+        <v>1.027268386670233</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053906744012562</v>
+        <v>1.049536700430342</v>
       </c>
       <c r="J24">
-        <v>1.047560123099055</v>
+        <v>1.026013724063414</v>
       </c>
       <c r="K24">
-        <v>1.053151935665182</v>
+        <v>1.03414727220834</v>
       </c>
       <c r="L24">
-        <v>1.052930338799283</v>
+        <v>1.032346226514691</v>
       </c>
       <c r="M24">
-        <v>1.058497116839873</v>
+        <v>1.040832982966608</v>
       </c>
       <c r="N24">
-        <v>1.018469883257787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011172232999196</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04088895746323</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035266674925035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03123637850024</v>
+        <v>1.0077474557441</v>
       </c>
       <c r="D25">
-        <v>1.048088505031052</v>
+        <v>1.026700614780488</v>
       </c>
       <c r="E25">
-        <v>1.049104868211493</v>
+        <v>1.026553461449945</v>
       </c>
       <c r="F25">
-        <v>1.054844109255228</v>
+        <v>1.034259375184363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057669958990755</v>
+        <v>1.052083436988014</v>
       </c>
       <c r="J25">
-        <v>1.054756378749089</v>
+        <v>1.032016870864975</v>
       </c>
       <c r="K25">
-        <v>1.059983509698356</v>
+        <v>1.038898110215141</v>
       </c>
       <c r="L25">
-        <v>1.060985885237998</v>
+        <v>1.038753093435969</v>
       </c>
       <c r="M25">
-        <v>1.066646776755759</v>
+        <v>1.046348157996215</v>
       </c>
       <c r="N25">
-        <v>1.021008378736264</v>
+        <v>1.013386961940609</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045253833236004</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038622890692075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014798336147131</v>
+        <v>1.013918095747795</v>
       </c>
       <c r="D2">
-        <v>1.031420316196122</v>
+        <v>1.029991540454442</v>
       </c>
       <c r="E2">
-        <v>1.032582686309339</v>
+        <v>1.031778879182071</v>
       </c>
       <c r="F2">
-        <v>1.039599879769082</v>
+        <v>1.038951790902982</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053954773678536</v>
+        <v>1.053228384836421</v>
       </c>
       <c r="J2">
-        <v>1.036545264219509</v>
+        <v>1.035690341243638</v>
       </c>
       <c r="K2">
-        <v>1.04245860595284</v>
+        <v>1.041048278579504</v>
       </c>
       <c r="L2">
-        <v>1.043606014624843</v>
+        <v>1.042812549200285</v>
       </c>
       <c r="M2">
-        <v>1.050533773354283</v>
+        <v>1.049893881227243</v>
       </c>
       <c r="N2">
-        <v>1.015036541753589</v>
+        <v>1.016031424120302</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048566438043184</v>
+        <v>1.048060011740453</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041092194670933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040103723840281</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022761466153895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019786292839889</v>
+        <v>1.018547366765101</v>
       </c>
       <c r="D3">
-        <v>1.034773863892284</v>
+        <v>1.032975147996952</v>
       </c>
       <c r="E3">
-        <v>1.036862585000189</v>
+        <v>1.035735317536295</v>
       </c>
       <c r="F3">
-        <v>1.043392032833058</v>
+        <v>1.042497543360998</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055257111584364</v>
+        <v>1.054339243926793</v>
       </c>
       <c r="J3">
-        <v>1.039751721102682</v>
+        <v>1.038544872132389</v>
       </c>
       <c r="K3">
-        <v>1.044980330444852</v>
+        <v>1.043202798987834</v>
       </c>
       <c r="L3">
-        <v>1.047044565674534</v>
+        <v>1.045930497879566</v>
       </c>
       <c r="M3">
-        <v>1.05349825033686</v>
+        <v>1.052614070596627</v>
       </c>
       <c r="N3">
-        <v>1.016212854261688</v>
+        <v>1.016845719028026</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05091259323984</v>
+        <v>1.05021283385067</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042872609049621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041624213581157</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023252075768892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022944066341964</v>
+        <v>1.02148167869734</v>
       </c>
       <c r="D4">
-        <v>1.036898859239977</v>
+        <v>1.03486824921331</v>
       </c>
       <c r="E4">
-        <v>1.039578039378967</v>
+        <v>1.038248932374246</v>
       </c>
       <c r="F4">
-        <v>1.045799994126789</v>
+        <v>1.044751828737934</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056068041305974</v>
+        <v>1.055029946481396</v>
       </c>
       <c r="J4">
-        <v>1.04177852887511</v>
+        <v>1.040351398203146</v>
       </c>
       <c r="K4">
-        <v>1.046571445606546</v>
+        <v>1.04456329879146</v>
       </c>
       <c r="L4">
-        <v>1.04922115279167</v>
+        <v>1.047906643583205</v>
       </c>
       <c r="M4">
-        <v>1.0553753759571</v>
+        <v>1.054338551482876</v>
       </c>
       <c r="N4">
-        <v>1.016955564300921</v>
+        <v>1.017360881271963</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052398189778564</v>
+        <v>1.05157762553339</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043998547370003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042587168917726</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023559352947317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024261317400481</v>
+        <v>1.022705984866177</v>
       </c>
       <c r="D5">
-        <v>1.037787861191086</v>
+        <v>1.035660740294821</v>
       </c>
       <c r="E5">
-        <v>1.040712380888206</v>
+        <v>1.039299259676276</v>
       </c>
       <c r="F5">
-        <v>1.046805653938693</v>
+        <v>1.045693550301416</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056404632023293</v>
+        <v>1.055316447745168</v>
       </c>
       <c r="J5">
-        <v>1.042625149458924</v>
+        <v>1.041106176062578</v>
       </c>
       <c r="K5">
-        <v>1.047236928682573</v>
+        <v>1.045132707967563</v>
       </c>
       <c r="L5">
-        <v>1.050130150698802</v>
+        <v>1.048732125516898</v>
       </c>
       <c r="M5">
-        <v>1.056158901517133</v>
+        <v>1.055058505449511</v>
       </c>
       <c r="N5">
-        <v>1.017267420050655</v>
+        <v>1.017577231809995</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053018287451935</v>
+        <v>1.052147412027096</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044476223712087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042997627153245</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023688289625773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024488616811344</v>
+        <v>1.02291662606512</v>
       </c>
       <c r="D6">
-        <v>1.037943915152472</v>
+        <v>1.035799798869643</v>
       </c>
       <c r="E6">
-        <v>1.040908463573604</v>
+        <v>1.039480290515784</v>
       </c>
       <c r="F6">
-        <v>1.046978684092543</v>
+        <v>1.045855140763677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056464499153613</v>
+        <v>1.055367486102707</v>
       </c>
       <c r="J6">
-        <v>1.042773549049497</v>
+        <v>1.041238114574152</v>
       </c>
       <c r="K6">
-        <v>1.047355430686536</v>
+        <v>1.045234290978181</v>
       </c>
       <c r="L6">
-        <v>1.050288401522762</v>
+        <v>1.048875413460498</v>
       </c>
       <c r="M6">
-        <v>1.056294645549821</v>
+        <v>1.055182875239782</v>
       </c>
       <c r="N6">
-        <v>1.017324296204351</v>
+        <v>1.017616457781604</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05312571792072</v>
+        <v>1.052245840813514</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044568705066069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043079018348957</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023712404624843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022980815095576</v>
+        <v>1.021526258076726</v>
       </c>
       <c r="D7">
-        <v>1.036930696554533</v>
+        <v>1.034905255578043</v>
       </c>
       <c r="E7">
-        <v>1.039610391189973</v>
+        <v>1.038288325375327</v>
       </c>
       <c r="F7">
-        <v>1.045826413039245</v>
+        <v>1.044783672884938</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056082764340062</v>
+        <v>1.055047493208343</v>
       </c>
       <c r="J7">
-        <v>1.041808510762604</v>
+        <v>1.040389005422788</v>
       </c>
       <c r="K7">
-        <v>1.046600072687326</v>
+        <v>1.044597028451584</v>
       </c>
       <c r="L7">
-        <v>1.04925030075492</v>
+        <v>1.047942749340511</v>
       </c>
       <c r="M7">
-        <v>1.055398682773842</v>
+        <v>1.054367220316717</v>
       </c>
       <c r="N7">
-        <v>1.016972697595331</v>
+        <v>1.017403142104879</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05241663526311</v>
+        <v>1.051600314651058</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044038786019266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042633023078098</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023571615649718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016523250044595</v>
+        <v>1.01555376503363</v>
       </c>
       <c r="D8">
-        <v>1.03258829515929</v>
+        <v>1.031057449497943</v>
       </c>
       <c r="E8">
-        <v>1.03406241317714</v>
+        <v>1.033178080948654</v>
       </c>
       <c r="F8">
-        <v>1.040907664783778</v>
+        <v>1.040198384953729</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05441442666446</v>
+        <v>1.05363573172118</v>
       </c>
       <c r="J8">
-        <v>1.037662768916861</v>
+        <v>1.036720208862087</v>
       </c>
       <c r="K8">
-        <v>1.043344214567889</v>
+        <v>1.041832540410457</v>
       </c>
       <c r="L8">
-        <v>1.044799938354315</v>
+        <v>1.043926633085131</v>
       </c>
       <c r="M8">
-        <v>1.051560623198532</v>
+        <v>1.050860041567799</v>
       </c>
       <c r="N8">
-        <v>1.015454773643867</v>
+        <v>1.016414912483703</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049379111439471</v>
+        <v>1.048824654565858</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041741207153151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040683347556312</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022949406118152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004548004031527</v>
+        <v>1.004471483746863</v>
       </c>
       <c r="D9">
-        <v>1.024542856329947</v>
+        <v>1.023920923595558</v>
       </c>
       <c r="E9">
-        <v>1.023822543011197</v>
+        <v>1.023741046908368</v>
       </c>
       <c r="F9">
-        <v>1.031849387499038</v>
+        <v>1.031752349002832</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05120643101769</v>
+        <v>1.050897082903715</v>
       </c>
       <c r="J9">
-        <v>1.02994117647179</v>
+        <v>1.029867324519279</v>
       </c>
       <c r="K9">
-        <v>1.037249908347111</v>
+        <v>1.036637466270567</v>
       </c>
       <c r="L9">
-        <v>1.036540588315313</v>
+        <v>1.036460337233148</v>
       </c>
       <c r="M9">
-        <v>1.044446032487081</v>
+        <v>1.044350447275084</v>
       </c>
       <c r="N9">
-        <v>1.012610782572872</v>
+        <v>1.014466145935632</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043748436724518</v>
+        <v>1.043672787773022</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037428967097309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037006661598219</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021749759394889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9962856893286225</v>
+        <v>0.9968925066432073</v>
       </c>
       <c r="D10">
-        <v>1.019020994846399</v>
+        <v>1.019073145531512</v>
       </c>
       <c r="E10">
-        <v>1.016833694782247</v>
+        <v>1.017363699024195</v>
       </c>
       <c r="F10">
-        <v>1.025722051250646</v>
+        <v>1.026092709344404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048950773189476</v>
+        <v>1.048989172160435</v>
       </c>
       <c r="J10">
-        <v>1.024647453456148</v>
+        <v>1.02522996078642</v>
       </c>
       <c r="K10">
-        <v>1.033055107017842</v>
+        <v>1.033106361062325</v>
       </c>
       <c r="L10">
-        <v>1.030905520930367</v>
+        <v>1.031426367451324</v>
       </c>
       <c r="M10">
-        <v>1.03964191402684</v>
+        <v>1.040006308791603</v>
       </c>
       <c r="N10">
-        <v>1.010690259755827</v>
+        <v>1.013287252978281</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039997649875339</v>
+        <v>1.040286026136951</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03447978255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034528446602086</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020942112262711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9937615650038822</v>
+        <v>0.9945576808175549</v>
       </c>
       <c r="D11">
-        <v>1.017425103087256</v>
+        <v>1.017670406558625</v>
       </c>
       <c r="E11">
-        <v>1.015023486232338</v>
+        <v>1.015722432660022</v>
       </c>
       <c r="F11">
-        <v>1.024487577395407</v>
+        <v>1.024990599980907</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048439068958513</v>
+        <v>1.048578378799013</v>
       </c>
       <c r="J11">
-        <v>1.023396192959777</v>
+        <v>1.024158632462664</v>
       </c>
       <c r="K11">
-        <v>1.032025722766913</v>
+        <v>1.032266605232788</v>
       </c>
       <c r="L11">
-        <v>1.029667536104321</v>
+        <v>1.030353815418192</v>
       </c>
       <c r="M11">
-        <v>1.038962011626735</v>
+        <v>1.039456132730543</v>
       </c>
       <c r="N11">
-        <v>1.010499885845782</v>
+        <v>1.013386248936379</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039895081075625</v>
+        <v>1.040285924891063</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033784850924272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033970800258498</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020858831035602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9932340678935662</v>
+        <v>0.994030829346169</v>
       </c>
       <c r="D12">
-        <v>1.017131176181325</v>
+        <v>1.017388586567657</v>
       </c>
       <c r="E12">
-        <v>1.01481109357829</v>
+        <v>1.015510690332308</v>
       </c>
       <c r="F12">
-        <v>1.024561578214381</v>
+        <v>1.025067447771741</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048426381752646</v>
+        <v>1.048572648629921</v>
       </c>
       <c r="J12">
-        <v>1.023327560282018</v>
+        <v>1.024089981402968</v>
       </c>
       <c r="K12">
-        <v>1.031937368373514</v>
+        <v>1.032190062695519</v>
       </c>
       <c r="L12">
-        <v>1.029659933138058</v>
+        <v>1.030346643285109</v>
       </c>
       <c r="M12">
-        <v>1.039232875099272</v>
+        <v>1.039729653225479</v>
       </c>
       <c r="N12">
-        <v>1.010677746110027</v>
+        <v>1.013591679822178</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040435160157369</v>
+        <v>1.040827973143174</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033722381327021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033916683210185</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020916001528756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9942351984025333</v>
+        <v>0.9948656708892029</v>
       </c>
       <c r="D13">
-        <v>1.017845417917964</v>
+        <v>1.017960821747582</v>
       </c>
       <c r="E13">
-        <v>1.015840141156674</v>
+        <v>1.016391713587627</v>
       </c>
       <c r="F13">
-        <v>1.025677036768826</v>
+        <v>1.026071631394619</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04881593585332</v>
+        <v>1.048889123567496</v>
       </c>
       <c r="J13">
-        <v>1.024192033206906</v>
+        <v>1.024795503211474</v>
       </c>
       <c r="K13">
-        <v>1.032595618076742</v>
+        <v>1.032708918106419</v>
       </c>
       <c r="L13">
-        <v>1.030626996689587</v>
+        <v>1.03116846789816</v>
       </c>
       <c r="M13">
-        <v>1.040285862046457</v>
+        <v>1.040673407674793</v>
       </c>
       <c r="N13">
-        <v>1.011168169060905</v>
+        <v>1.013864559023182</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041543880376869</v>
+        <v>1.041850244271373</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034185290830605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034280786554643</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.0210925264138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9956212588447457</v>
+        <v>0.9960637431617707</v>
       </c>
       <c r="D14">
-        <v>1.018798098078771</v>
+        <v>1.0187478476962</v>
       </c>
       <c r="E14">
-        <v>1.017115016531367</v>
+        <v>1.017499191123664</v>
       </c>
       <c r="F14">
-        <v>1.026922633327471</v>
+        <v>1.027190479563057</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049268050838906</v>
+        <v>1.049255676200576</v>
       </c>
       <c r="J14">
-        <v>1.0252132561791</v>
+        <v>1.025637086384722</v>
       </c>
       <c r="K14">
-        <v>1.033390524289813</v>
+        <v>1.033341177900076</v>
       </c>
       <c r="L14">
-        <v>1.031737784190311</v>
+        <v>1.032115021651165</v>
       </c>
       <c r="M14">
-        <v>1.041370409428515</v>
+        <v>1.041633537408981</v>
       </c>
       <c r="N14">
-        <v>1.01164975950456</v>
+        <v>1.014087675664048</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042574167355611</v>
+        <v>1.042782148282428</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034748742808873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034729370841508</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021270658483524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9963039539549702</v>
+        <v>0.9966640937248115</v>
       </c>
       <c r="D15">
-        <v>1.019261145266847</v>
+        <v>1.019136815060524</v>
       </c>
       <c r="E15">
-        <v>1.017712419040457</v>
+        <v>1.018023199202835</v>
       </c>
       <c r="F15">
-        <v>1.027473759099943</v>
+        <v>1.027685760108533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049472614227795</v>
+        <v>1.049421895384046</v>
       </c>
       <c r="J15">
-        <v>1.025679280243148</v>
+        <v>1.02602437851934</v>
       </c>
       <c r="K15">
-        <v>1.033758779141791</v>
+        <v>1.033636667926454</v>
       </c>
       <c r="L15">
-        <v>1.032237744152264</v>
+        <v>1.032542958786743</v>
       </c>
       <c r="M15">
-        <v>1.041826358289647</v>
+        <v>1.042034655112633</v>
       </c>
       <c r="N15">
-        <v>1.01184309625881</v>
+        <v>1.014166069913218</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042972009927264</v>
+        <v>1.043136647062785</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035014985170814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034944732001535</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021345101227729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99961373731585</v>
+        <v>0.9996359605607518</v>
       </c>
       <c r="D16">
-        <v>1.021465484255379</v>
+        <v>1.021025389592144</v>
       </c>
       <c r="E16">
-        <v>1.020482352209363</v>
+        <v>1.020491254509072</v>
       </c>
       <c r="F16">
-        <v>1.029886639976002</v>
+        <v>1.029867379418667</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050372749894513</v>
+        <v>1.050158278653069</v>
       </c>
       <c r="J16">
-        <v>1.027765854429142</v>
+        <v>1.027787197844225</v>
       </c>
       <c r="K16">
-        <v>1.035422122302531</v>
+        <v>1.034989530287006</v>
       </c>
       <c r="L16">
-        <v>1.034455762020694</v>
+        <v>1.034464512264119</v>
       </c>
       <c r="M16">
-        <v>1.043701307224092</v>
+        <v>1.043682367964236</v>
       </c>
       <c r="N16">
-        <v>1.012563925514655</v>
+        <v>1.014422693820985</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044415352324789</v>
+        <v>1.044400382359287</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036194188378044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03590470592085</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021640280892643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001430111311998</v>
+        <v>1.001303879566162</v>
       </c>
       <c r="D17">
-        <v>1.022660909279111</v>
+        <v>1.022073588957338</v>
       </c>
       <c r="E17">
-        <v>1.021942347228413</v>
+        <v>1.02181819922</v>
       </c>
       <c r="F17">
-        <v>1.031082323639375</v>
+        <v>1.030960326508096</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050824314513992</v>
+        <v>1.050533390030636</v>
       </c>
       <c r="J17">
-        <v>1.028833443165896</v>
+        <v>1.028712043653451</v>
       </c>
       <c r="K17">
-        <v>1.036282943927633</v>
+        <v>1.035705349572049</v>
       </c>
       <c r="L17">
-        <v>1.035576283160448</v>
+        <v>1.035454193553849</v>
       </c>
       <c r="M17">
-        <v>1.044566465111866</v>
+        <v>1.044446444925769</v>
       </c>
       <c r="N17">
-        <v>1.012866315543001</v>
+        <v>1.014534355360701</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044970553067633</v>
+        <v>1.044875677307575</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036805402702325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036413642483929</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021775564793442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002094960871363</v>
+        <v>1.001958028054601</v>
       </c>
       <c r="D18">
-        <v>1.023065341921716</v>
+        <v>1.022454728805935</v>
       </c>
       <c r="E18">
-        <v>1.022358020133208</v>
+        <v>1.022223780799878</v>
       </c>
       <c r="F18">
-        <v>1.031274400109643</v>
+        <v>1.031142835643627</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050913406432665</v>
+        <v>1.050610078629478</v>
       </c>
       <c r="J18">
-        <v>1.029079056068313</v>
+        <v>1.028947266987747</v>
       </c>
       <c r="K18">
-        <v>1.036497470364526</v>
+        <v>1.03589680309027</v>
       </c>
       <c r="L18">
-        <v>1.035801671036483</v>
+        <v>1.035669620811044</v>
       </c>
       <c r="M18">
-        <v>1.044574282759398</v>
+        <v>1.044444816482087</v>
       </c>
       <c r="N18">
-        <v>1.012809164164743</v>
+        <v>1.014471269057267</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044739866888893</v>
+        <v>1.044637502813125</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036945452193501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036536242401709</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021768526745458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001737063078747</v>
+        <v>1.001700752091492</v>
       </c>
       <c r="D19">
-        <v>1.022775491134075</v>
+        <v>1.022244699170353</v>
       </c>
       <c r="E19">
-        <v>1.021838533369368</v>
+        <v>1.02179382509509</v>
       </c>
       <c r="F19">
-        <v>1.030561082784952</v>
+        <v>1.030495622143025</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050687483864641</v>
+        <v>1.050424970994005</v>
       </c>
       <c r="J19">
-        <v>1.028600362023245</v>
+        <v>1.028565408219776</v>
       </c>
       <c r="K19">
-        <v>1.036149839143168</v>
+        <v>1.035627652155568</v>
       </c>
       <c r="L19">
-        <v>1.035228078698091</v>
+        <v>1.035184096480352</v>
       </c>
       <c r="M19">
-        <v>1.043810519017725</v>
+        <v>1.043746098543634</v>
       </c>
       <c r="N19">
-        <v>1.012450121598174</v>
+        <v>1.014242659617583</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043811647736987</v>
+        <v>1.043760696393193</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036706057667309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036352962692977</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021639604624596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9984907889568142</v>
+        <v>0.9988708113077283</v>
       </c>
       <c r="D20">
-        <v>1.020511108492546</v>
+        <v>1.020351684175804</v>
       </c>
       <c r="E20">
-        <v>1.01870037250939</v>
+        <v>1.01902771740171</v>
       </c>
       <c r="F20">
-        <v>1.027354126498454</v>
+        <v>1.02756973754149</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049571045209731</v>
+        <v>1.049499856627282</v>
       </c>
       <c r="J20">
-        <v>1.026080012379295</v>
+        <v>1.026445330787731</v>
       </c>
       <c r="K20">
-        <v>1.034202634578638</v>
+        <v>1.034045870775236</v>
       </c>
       <c r="L20">
-        <v>1.032422179755941</v>
+        <v>1.032744040148427</v>
       </c>
       <c r="M20">
-        <v>1.040932455442038</v>
+        <v>1.041144531350122</v>
       </c>
       <c r="N20">
-        <v>1.011230505785449</v>
+        <v>1.013534206436526</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041008445945931</v>
+        <v>1.041176281397513</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035333243741928</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035238914880397</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021162311304693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9920292478405813</v>
+        <v>0.9931510672589627</v>
       </c>
       <c r="D21">
-        <v>1.016180587008313</v>
+        <v>1.016700743492171</v>
       </c>
       <c r="E21">
-        <v>1.013186826181016</v>
+        <v>1.014176602339535</v>
       </c>
       <c r="F21">
-        <v>1.022456905068685</v>
+        <v>1.023180066557871</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047745899733257</v>
+        <v>1.04802714364597</v>
       </c>
       <c r="J21">
-        <v>1.021864044823922</v>
+        <v>1.02293795695195</v>
       </c>
       <c r="K21">
-        <v>1.030861763264136</v>
+        <v>1.031372475560101</v>
       </c>
       <c r="L21">
-        <v>1.027922603942923</v>
+        <v>1.028894281700789</v>
       </c>
       <c r="M21">
-        <v>1.037024958870104</v>
+        <v>1.037735202082272</v>
       </c>
       <c r="N21">
-        <v>1.009649686151262</v>
+        <v>1.012977906957915</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037875157021798</v>
+        <v>1.038437268739463</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032974370720089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033352315094866</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020551427039858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9879088118650701</v>
+        <v>0.9895080465318489</v>
       </c>
       <c r="D22">
-        <v>1.013422429905687</v>
+        <v>1.014379367677962</v>
       </c>
       <c r="E22">
-        <v>1.009698854738935</v>
+        <v>1.011113882877241</v>
       </c>
       <c r="F22">
-        <v>1.019386475334363</v>
+        <v>1.020436223172253</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046575446319158</v>
+        <v>1.047082949494408</v>
       </c>
       <c r="J22">
-        <v>1.019189028064301</v>
+        <v>1.020715750505987</v>
       </c>
       <c r="K22">
-        <v>1.028732594342343</v>
+        <v>1.029671249023111</v>
       </c>
       <c r="L22">
-        <v>1.02508059325084</v>
+        <v>1.026468340575295</v>
       </c>
       <c r="M22">
-        <v>1.034583422903023</v>
+        <v>1.03561342201171</v>
       </c>
       <c r="N22">
-        <v>1.008652837373514</v>
+        <v>1.012626809425304</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035942835312434</v>
+        <v>1.036758015276265</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031455415830139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032134653060031</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020164249042199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9900836289640323</v>
+        <v>0.9914108214244861</v>
       </c>
       <c r="D23">
-        <v>1.014871479534628</v>
+        <v>1.01558246149585</v>
       </c>
       <c r="E23">
-        <v>1.011538098668293</v>
+        <v>1.012710833948266</v>
       </c>
       <c r="F23">
-        <v>1.02100751318737</v>
+        <v>1.021870954025992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047190127134322</v>
+        <v>1.047570012126985</v>
       </c>
       <c r="J23">
-        <v>1.02059497147311</v>
+        <v>1.021863852591677</v>
       </c>
       <c r="K23">
-        <v>1.029847850083133</v>
+        <v>1.030545607005783</v>
       </c>
       <c r="L23">
-        <v>1.026576797488693</v>
+        <v>1.027727543636168</v>
       </c>
       <c r="M23">
-        <v>1.03587053661242</v>
+        <v>1.036718169887861</v>
       </c>
       <c r="N23">
-        <v>1.009169683192252</v>
+        <v>1.012755627415326</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036961505278231</v>
+        <v>1.037632353182224</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032234285893213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032742254137234</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020356891234915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9984561137023306</v>
+        <v>0.9988518332341454</v>
       </c>
       <c r="D24">
-        <v>1.020470348995115</v>
+        <v>1.020322535564752</v>
       </c>
       <c r="E24">
-        <v>1.018638707851075</v>
+        <v>1.01898005880635</v>
       </c>
       <c r="F24">
-        <v>1.027268386670233</v>
+        <v>1.027494380798975</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049536700430342</v>
+        <v>1.049471486765084</v>
       </c>
       <c r="J24">
-        <v>1.026013724063414</v>
+        <v>1.0263941526455</v>
       </c>
       <c r="K24">
-        <v>1.03414727220834</v>
+        <v>1.034001922581564</v>
       </c>
       <c r="L24">
-        <v>1.032346226514691</v>
+        <v>1.03268186484951</v>
       </c>
       <c r="M24">
-        <v>1.040832982966608</v>
+        <v>1.041055275714182</v>
       </c>
       <c r="N24">
-        <v>1.011172232999196</v>
+        <v>1.013495351936384</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04088895746323</v>
+        <v>1.041064887152335</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035266674925035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035177749639145</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02113796175851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0077474557441</v>
+        <v>1.007409215317299</v>
       </c>
       <c r="D25">
-        <v>1.026700614780488</v>
+        <v>1.025819850623066</v>
       </c>
       <c r="E25">
-        <v>1.026553461449945</v>
+        <v>1.026237158178033</v>
       </c>
       <c r="F25">
-        <v>1.034259375184363</v>
+        <v>1.033983177794936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052083436988014</v>
+        <v>1.051640383549814</v>
       </c>
       <c r="J25">
-        <v>1.032016870864975</v>
+        <v>1.0316897769735</v>
       </c>
       <c r="K25">
-        <v>1.038898110215141</v>
+        <v>1.038030145663188</v>
       </c>
       <c r="L25">
-        <v>1.038753093435969</v>
+        <v>1.038441385270371</v>
       </c>
       <c r="M25">
-        <v>1.046348157996215</v>
+        <v>1.046075897567128</v>
       </c>
       <c r="N25">
-        <v>1.013386961940609</v>
+        <v>1.014958296144603</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045253833236004</v>
+        <v>1.045038358738138</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038622890692075</v>
+        <v>1.038022713549382</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022076855964382</v>
       </c>
     </row>
   </sheetData>
